--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25642FE1-F8E7-4A94-A0C8-BFD0563F50C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DFB548-C5E8-40A0-A9AE-75E864D747A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="11">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>&lt;- INICIO CTR ↓</t>
+  </si>
+  <si>
+    <t>&lt;- FIM ARQ</t>
   </si>
 </sst>
 </file>
@@ -141,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,6 +209,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1881,10 +1893,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:E17"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1892,6 +1904,7 @@
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2164,7 +2177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>45032</v>
       </c>
@@ -2180,8 +2193,11 @@
       <c r="E17" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>45033</v>
       </c>
@@ -2189,8 +2205,11 @@
       <c r="C18" s="17"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>45034</v>
       </c>
@@ -2199,7 +2218,7 @@
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>45035</v>
       </c>
@@ -2208,7 +2227,7 @@
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>45036</v>
       </c>
@@ -2217,7 +2236,7 @@
       <c r="D21" s="16"/>
       <c r="E21" s="18"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>45037</v>
       </c>
@@ -2226,7 +2245,7 @@
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>45038</v>
       </c>
@@ -2235,7 +2254,7 @@
       <c r="D23" s="18"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>45039</v>
       </c>
@@ -2244,7 +2263,7 @@
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>45040</v>
       </c>
@@ -2253,7 +2272,7 @@
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>45041</v>
       </c>
@@ -2262,7 +2281,7 @@
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>45042</v>
       </c>
@@ -2271,7 +2290,7 @@
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>45043</v>
       </c>
@@ -2280,7 +2299,7 @@
       <c r="D28" s="18"/>
       <c r="E28" s="19"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>45044</v>
       </c>
@@ -2289,7 +2308,7 @@
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>45045</v>
       </c>
@@ -2298,7 +2317,7 @@
       <c r="D30" s="18"/>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>45046</v>
       </c>
@@ -2307,7 +2326,7 @@
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>0</v>
       </c>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DFB548-C5E8-40A0-A9AE-75E864D747A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77196EE-F0C2-4382-9B47-FE2F9BBAE3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +92,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,17 +210,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,7 +1329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -1336,10 +1351,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1895,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1904,7 +1919,7 @@
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1917,10 +1932,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2193,19 +2208,27 @@
       <c r="E17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="26">
         <v>45033</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="24" t="s">
+      <c r="B18" s="27">
+        <v>2</v>
+      </c>
+      <c r="C18" s="28">
+        <v>14</v>
+      </c>
+      <c r="D18" s="27">
+        <v>54</v>
+      </c>
+      <c r="E18" s="27">
+        <v>54</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2332,11 +2355,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2355,36 +2378,36 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="14">
-        <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>0</v>
+        <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B32)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77196EE-F0C2-4382-9B47-FE2F9BBAE3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6971A748-AC02-4A5C-A3B9-13AB040ACE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="11">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -216,12 +216,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -229,6 +223,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1351,10 +1351,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="24"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1910,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,10 +1932,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="24"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2057,20 +2057,20 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="24">
         <v>45024</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>8</v>
+      <c r="B9" s="25">
+        <v>2</v>
+      </c>
+      <c r="C9" s="26">
+        <v>14</v>
+      </c>
+      <c r="D9" s="25">
+        <v>54</v>
+      </c>
+      <c r="E9" s="25">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2125,54 +2125,54 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="24">
         <v>45028</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>8</v>
+      <c r="B13" s="25">
+        <v>2</v>
+      </c>
+      <c r="C13" s="26">
+        <v>14</v>
+      </c>
+      <c r="D13" s="25">
+        <v>54</v>
+      </c>
+      <c r="E13" s="25">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="24">
         <v>45029</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>8</v>
+      <c r="B14" s="25">
+        <v>2</v>
+      </c>
+      <c r="C14" s="26">
+        <v>14</v>
+      </c>
+      <c r="D14" s="25">
+        <v>54</v>
+      </c>
+      <c r="E14" s="25">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="24">
         <v>45030</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>8</v>
+      <c r="B15" s="25">
+        <v>2</v>
+      </c>
+      <c r="C15" s="26">
+        <v>14</v>
+      </c>
+      <c r="D15" s="25">
+        <v>54</v>
+      </c>
+      <c r="E15" s="25">
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2213,19 +2213,19 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+      <c r="A18" s="24">
         <v>45033</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="25">
         <v>2</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="26">
         <v>14</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="25">
         <v>54</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="25">
         <v>54</v>
       </c>
       <c r="F18" s="22" t="s">
@@ -2355,11 +2355,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2384,30 +2384,30 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B32)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6971A748-AC02-4A5C-A3B9-13AB040ACE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EF0E13-EC00-490B-A8E9-EEE2A1CDC9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1911,7 +1911,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,13 +2233,21 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19" s="24">
         <v>45034</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="B19" s="25">
+        <v>2</v>
+      </c>
+      <c r="C19" s="26">
+        <v>14</v>
+      </c>
+      <c r="D19" s="25">
+        <v>54</v>
+      </c>
+      <c r="E19" s="25">
+        <v>54</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
@@ -2355,11 +2363,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2397,7 +2405,7 @@
       <c r="B2" s="28"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B32)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2407,7 +2415,7 @@
       <c r="B3" s="28"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EF0E13-EC00-490B-A8E9-EEE2A1CDC9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E6EAC9-FBD8-438D-B058-0FF9F69D5C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9165" yWindow="885" windowWidth="11730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -1329,7 +1329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -1911,7 +1911,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,10 +2163,10 @@
         <v>45030</v>
       </c>
       <c r="B15" s="25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" s="26">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D15" s="25">
         <v>54</v>
@@ -2363,11 +2363,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2405,7 +2405,7 @@
       <c r="B2" s="28"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B32)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2415,7 +2415,7 @@
       <c r="B3" s="28"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E6EAC9-FBD8-438D-B058-0FF9F69D5C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ECF6CA-27EA-4D8E-BDE6-366C3F7A32BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9165" yWindow="885" windowWidth="11730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1911,7 +1911,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,13 +2250,24 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="A20" s="24">
         <v>45035</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="B20" s="25">
+        <v>3</v>
+      </c>
+      <c r="C20" s="26">
+        <v>21</v>
+      </c>
+      <c r="D20" s="25">
+        <v>54</v>
+      </c>
+      <c r="E20" s="25">
+        <v>54</v>
+      </c>
+      <c r="F20" s="25">
+        <v>54</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
@@ -2363,11 +2374,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2405,7 +2416,7 @@
       <c r="B2" s="28"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B32)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2415,7 +2426,7 @@
       <c r="B3" s="28"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ECF6CA-27EA-4D8E-BDE6-366C3F7A32BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6FB2DD-C2AB-4BA5-ADFF-73D0D22E4081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9165" yWindow="885" windowWidth="11730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -1911,7 +1911,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2270,13 +2270,21 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="24">
         <v>45036</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="18"/>
+      <c r="B21" s="25">
+        <v>2</v>
+      </c>
+      <c r="C21" s="26">
+        <v>14</v>
+      </c>
+      <c r="D21" s="25">
+        <v>54</v>
+      </c>
+      <c r="E21" s="25">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
@@ -2374,11 +2382,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2416,7 +2424,7 @@
       <c r="B2" s="28"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B32)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2426,7 +2434,7 @@
       <c r="B3" s="28"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6FB2DD-C2AB-4BA5-ADFF-73D0D22E4081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4A4CB5-88C6-4CB9-96EC-88CE25198542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="11">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -1911,7 +1911,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2287,13 +2287,21 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="9">
         <v>45037</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="B22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="15">

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4A4CB5-88C6-4CB9-96EC-88CE25198542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFF6DDB-9E91-4967-8266-1F032417660F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1911,7 +1911,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,13 +2304,21 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="A23" s="24">
         <v>45038</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="16"/>
+      <c r="B23" s="25">
+        <v>2</v>
+      </c>
+      <c r="C23" s="26">
+        <v>14</v>
+      </c>
+      <c r="D23" s="25">
+        <v>54</v>
+      </c>
+      <c r="E23" s="25">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
@@ -2390,11 +2398,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2432,7 +2440,7 @@
       <c r="B2" s="28"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B32)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2442,7 +2450,7 @@
       <c r="B3" s="28"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFF6DDB-9E91-4967-8266-1F032417660F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F392A464-7933-4790-9808-E2D0DD1E82AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="11">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -1911,7 +1911,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2321,13 +2321,21 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+      <c r="A24" s="9">
         <v>45039</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="B24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="15">

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F392A464-7933-4790-9808-E2D0DD1E82AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A154FA2-3191-4295-A71B-627EA2485E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +98,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,6 +235,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1911,7 +1920,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,22 +2347,38 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="A25" s="29">
         <v>45040</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
+      <c r="B25" s="25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="26">
+        <v>14</v>
+      </c>
+      <c r="D25" s="25">
+        <v>54</v>
+      </c>
+      <c r="E25" s="25">
+        <v>54</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="29">
         <v>45041</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="B26" s="25">
+        <v>2</v>
+      </c>
+      <c r="C26" s="26">
+        <v>14</v>
+      </c>
+      <c r="D26" s="25">
+        <v>54</v>
+      </c>
+      <c r="E26" s="25">
+        <v>54</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
@@ -2406,11 +2431,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2448,7 +2473,7 @@
       <c r="B2" s="28"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B32)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2458,7 +2483,7 @@
       <c r="B3" s="28"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A154FA2-3191-4295-A71B-627EA2485E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6EE526-20A9-42E2-9399-E5B4AAF36E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,13 +231,13 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1360,10 +1360,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,10 +1941,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2347,7 +2347,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="29">
+      <c r="A25" s="27">
         <v>45040</v>
       </c>
       <c r="B25" s="25">
@@ -2364,7 +2364,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
+      <c r="A26" s="27">
         <v>45041</v>
       </c>
       <c r="B26" s="25">
@@ -2381,13 +2381,21 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+      <c r="A27" s="27">
         <v>45042</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+      <c r="B27" s="25">
+        <v>2</v>
+      </c>
+      <c r="C27" s="26">
+        <v>14</v>
+      </c>
+      <c r="D27" s="25">
+        <v>54</v>
+      </c>
+      <c r="E27" s="25">
+        <v>54</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
@@ -2431,11 +2439,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2460,30 +2468,30 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B32)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6EE526-20A9-42E2-9399-E5B4AAF36E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29513E9A-AF3B-48FB-A7B1-62084E2565B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -138,19 +138,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -159,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -210,9 +197,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1360,10 +1344,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1919,16 +1903,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1941,10 +1925,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2066,19 +2050,19 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="23">
         <v>45024</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <v>2</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <v>14</v>
       </c>
-      <c r="D9" s="25">
-        <v>54</v>
-      </c>
-      <c r="E9" s="25">
+      <c r="D9" s="24">
+        <v>54</v>
+      </c>
+      <c r="E9" s="24">
         <v>54</v>
       </c>
     </row>
@@ -2134,53 +2118,53 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="A13" s="23">
         <v>45028</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="24">
         <v>2</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <v>14</v>
       </c>
-      <c r="D13" s="25">
-        <v>54</v>
-      </c>
-      <c r="E13" s="25">
+      <c r="D13" s="24">
+        <v>54</v>
+      </c>
+      <c r="E13" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="23">
         <v>45029</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <v>2</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <v>14</v>
       </c>
-      <c r="D14" s="25">
-        <v>54</v>
-      </c>
-      <c r="E14" s="25">
+      <c r="D14" s="24">
+        <v>54</v>
+      </c>
+      <c r="E14" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="A15" s="23">
         <v>45030</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="24">
         <v>4</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="25">
         <v>32</v>
       </c>
-      <c r="D15" s="25">
-        <v>54</v>
-      </c>
-      <c r="E15" s="25">
+      <c r="D15" s="24">
+        <v>54</v>
+      </c>
+      <c r="E15" s="24">
         <v>54</v>
       </c>
     </row>
@@ -2217,81 +2201,81 @@
       <c r="E17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+      <c r="A18" s="23">
         <v>45033</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="24">
         <v>2</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="25">
         <v>14</v>
       </c>
-      <c r="D18" s="25">
-        <v>54</v>
-      </c>
-      <c r="E18" s="25">
-        <v>54</v>
-      </c>
-      <c r="F18" s="22" t="s">
+      <c r="D18" s="24">
+        <v>54</v>
+      </c>
+      <c r="E18" s="24">
+        <v>54</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="23">
         <v>45034</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <v>2</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="25">
         <v>14</v>
       </c>
-      <c r="D19" s="25">
-        <v>54</v>
-      </c>
-      <c r="E19" s="25">
+      <c r="D19" s="24">
+        <v>54</v>
+      </c>
+      <c r="E19" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+      <c r="A20" s="23">
         <v>45035</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="24">
         <v>3</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="25">
         <v>21</v>
       </c>
-      <c r="D20" s="25">
-        <v>54</v>
-      </c>
-      <c r="E20" s="25">
-        <v>54</v>
-      </c>
-      <c r="F20" s="25">
+      <c r="D20" s="24">
+        <v>54</v>
+      </c>
+      <c r="E20" s="24">
+        <v>54</v>
+      </c>
+      <c r="F20" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+      <c r="A21" s="23">
         <v>45036</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="24">
         <v>2</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="25">
         <v>14</v>
       </c>
-      <c r="D21" s="25">
-        <v>54</v>
-      </c>
-      <c r="E21" s="25">
+      <c r="D21" s="24">
+        <v>54</v>
+      </c>
+      <c r="E21" s="24">
         <v>54</v>
       </c>
     </row>
@@ -2313,19 +2297,19 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+      <c r="A23" s="23">
         <v>45038</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="24">
         <v>2</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="25">
         <v>14</v>
       </c>
-      <c r="D23" s="25">
-        <v>54</v>
-      </c>
-      <c r="E23" s="25">
+      <c r="D23" s="24">
+        <v>54</v>
+      </c>
+      <c r="E23" s="24">
         <v>54</v>
       </c>
     </row>
@@ -2347,64 +2331,72 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
+      <c r="A25" s="26">
         <v>45040</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="24">
         <v>2</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="25">
         <v>14</v>
       </c>
-      <c r="D25" s="25">
-        <v>54</v>
-      </c>
-      <c r="E25" s="25">
+      <c r="D25" s="24">
+        <v>54</v>
+      </c>
+      <c r="E25" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
+      <c r="A26" s="26">
         <v>45041</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="24">
         <v>2</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="25">
         <v>14</v>
       </c>
-      <c r="D26" s="25">
-        <v>54</v>
-      </c>
-      <c r="E26" s="25">
+      <c r="D26" s="24">
+        <v>54</v>
+      </c>
+      <c r="E26" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
+      <c r="A27" s="26">
         <v>45042</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="24">
         <v>2</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="25">
         <v>14</v>
       </c>
-      <c r="D27" s="25">
-        <v>54</v>
-      </c>
-      <c r="E27" s="25">
+      <c r="D27" s="24">
+        <v>54</v>
+      </c>
+      <c r="E27" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="A28" s="26">
         <v>45043</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
+      <c r="B28" s="24">
+        <v>2</v>
+      </c>
+      <c r="C28" s="25">
+        <v>14</v>
+      </c>
+      <c r="D28" s="24">
+        <v>54</v>
+      </c>
+      <c r="E28" s="24">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
@@ -2422,7 +2414,7 @@
       <c r="B30" s="16"/>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="20"/>
+      <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
@@ -2439,11 +2431,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C32" s="7">
-        <f>SUM(C2:C31)</f>
-        <v>193</v>
+        <f>SUM(C18:C31)</f>
+        <v>133</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2468,30 +2460,30 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B32)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>193</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29513E9A-AF3B-48FB-A7B1-62084E2565B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026CC403-C4FD-45E2-BC19-F7322D388B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -131,22 +131,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -194,9 +183,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1344,10 +1330,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1904,15 +1890,15 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1925,10 +1911,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2050,19 +2036,19 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="22">
         <v>45024</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>2</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>14</v>
       </c>
-      <c r="D9" s="24">
-        <v>54</v>
-      </c>
-      <c r="E9" s="24">
+      <c r="D9" s="23">
+        <v>54</v>
+      </c>
+      <c r="E9" s="23">
         <v>54</v>
       </c>
     </row>
@@ -2118,53 +2104,53 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="A13" s="22">
         <v>45028</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <v>2</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>14</v>
       </c>
-      <c r="D13" s="24">
-        <v>54</v>
-      </c>
-      <c r="E13" s="24">
+      <c r="D13" s="23">
+        <v>54</v>
+      </c>
+      <c r="E13" s="23">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>45029</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <v>2</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>14</v>
       </c>
-      <c r="D14" s="24">
-        <v>54</v>
-      </c>
-      <c r="E14" s="24">
+      <c r="D14" s="23">
+        <v>54</v>
+      </c>
+      <c r="E14" s="23">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="A15" s="22">
         <v>45030</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="23">
         <v>4</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <v>32</v>
       </c>
-      <c r="D15" s="24">
-        <v>54</v>
-      </c>
-      <c r="E15" s="24">
+      <c r="D15" s="23">
+        <v>54</v>
+      </c>
+      <c r="E15" s="23">
         <v>54</v>
       </c>
     </row>
@@ -2201,81 +2187,81 @@
       <c r="E17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+      <c r="A18" s="22">
         <v>45033</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="23">
         <v>2</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="24">
         <v>14</v>
       </c>
-      <c r="D18" s="24">
-        <v>54</v>
-      </c>
-      <c r="E18" s="24">
-        <v>54</v>
-      </c>
-      <c r="F18" s="21" t="s">
+      <c r="D18" s="23">
+        <v>54</v>
+      </c>
+      <c r="E18" s="23">
+        <v>54</v>
+      </c>
+      <c r="F18" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="A19" s="22">
         <v>45034</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="23">
         <v>2</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <v>14</v>
       </c>
-      <c r="D19" s="24">
-        <v>54</v>
-      </c>
-      <c r="E19" s="24">
+      <c r="D19" s="23">
+        <v>54</v>
+      </c>
+      <c r="E19" s="23">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>45035</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>3</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="24">
         <v>21</v>
       </c>
-      <c r="D20" s="24">
-        <v>54</v>
-      </c>
-      <c r="E20" s="24">
-        <v>54</v>
-      </c>
-      <c r="F20" s="24">
+      <c r="D20" s="23">
+        <v>54</v>
+      </c>
+      <c r="E20" s="23">
+        <v>54</v>
+      </c>
+      <c r="F20" s="23">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+      <c r="A21" s="22">
         <v>45036</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="23">
         <v>2</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="24">
         <v>14</v>
       </c>
-      <c r="D21" s="24">
-        <v>54</v>
-      </c>
-      <c r="E21" s="24">
+      <c r="D21" s="23">
+        <v>54</v>
+      </c>
+      <c r="E21" s="23">
         <v>54</v>
       </c>
     </row>
@@ -2297,19 +2283,19 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
+      <c r="A23" s="22">
         <v>45038</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="23">
         <v>2</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="24">
         <v>14</v>
       </c>
-      <c r="D23" s="24">
-        <v>54</v>
-      </c>
-      <c r="E23" s="24">
+      <c r="D23" s="23">
+        <v>54</v>
+      </c>
+      <c r="E23" s="23">
         <v>54</v>
       </c>
     </row>
@@ -2331,90 +2317,106 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="26">
+      <c r="A25" s="25">
         <v>45040</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="23">
         <v>2</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="24">
         <v>14</v>
       </c>
-      <c r="D25" s="24">
-        <v>54</v>
-      </c>
-      <c r="E25" s="24">
+      <c r="D25" s="23">
+        <v>54</v>
+      </c>
+      <c r="E25" s="23">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
+      <c r="A26" s="25">
         <v>45041</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="23">
         <v>2</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="24">
         <v>14</v>
       </c>
-      <c r="D26" s="24">
-        <v>54</v>
-      </c>
-      <c r="E26" s="24">
+      <c r="D26" s="23">
+        <v>54</v>
+      </c>
+      <c r="E26" s="23">
         <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="26">
+      <c r="A27" s="25">
         <v>45042</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="23">
         <v>2</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="24">
         <v>14</v>
       </c>
-      <c r="D27" s="24">
-        <v>54</v>
-      </c>
-      <c r="E27" s="24">
+      <c r="D27" s="23">
+        <v>54</v>
+      </c>
+      <c r="E27" s="23">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="26">
+      <c r="A28" s="25">
         <v>45043</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="23">
         <v>2</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="24">
         <v>14</v>
       </c>
-      <c r="D28" s="24">
-        <v>54</v>
-      </c>
-      <c r="E28" s="24">
+      <c r="D28" s="23">
+        <v>54</v>
+      </c>
+      <c r="E28" s="23">
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="A29" s="25">
         <v>45044</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+      <c r="B29" s="23">
+        <v>2</v>
+      </c>
+      <c r="C29" s="24">
+        <v>14</v>
+      </c>
+      <c r="D29" s="23">
+        <v>54</v>
+      </c>
+      <c r="E29" s="23">
+        <v>54</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="A30" s="25">
         <v>45045</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
+      <c r="B30" s="23">
+        <v>2</v>
+      </c>
+      <c r="C30" s="24">
+        <v>14</v>
+      </c>
+      <c r="D30" s="23">
+        <v>54</v>
+      </c>
+      <c r="E30" s="23">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
@@ -2431,11 +2433,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C18:C31)</f>
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2460,30 +2462,30 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B32)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>133</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026CC403-C4FD-45E2-BC19-F7322D388B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92692EEF-228D-4392-BE63-F7286E901F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="11">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -70,7 +70,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,12 +86,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -135,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -173,6 +167,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -182,26 +183,7 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1330,10 +1312,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1889,16 +1871,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="P26" sqref="P25:P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1911,10 +1893,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2036,19 +2018,19 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="18">
         <v>45024</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="19">
         <v>2</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="20">
         <v>14</v>
       </c>
-      <c r="D9" s="23">
-        <v>54</v>
-      </c>
-      <c r="E9" s="23">
+      <c r="D9" s="19">
+        <v>54</v>
+      </c>
+      <c r="E9" s="19">
         <v>54</v>
       </c>
     </row>
@@ -2104,53 +2086,53 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+      <c r="A13" s="18">
         <v>45028</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="19">
         <v>2</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="20">
         <v>14</v>
       </c>
-      <c r="D13" s="23">
-        <v>54</v>
-      </c>
-      <c r="E13" s="23">
+      <c r="D13" s="19">
+        <v>54</v>
+      </c>
+      <c r="E13" s="19">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
+      <c r="A14" s="18">
         <v>45029</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="19">
         <v>2</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="20">
         <v>14</v>
       </c>
-      <c r="D14" s="23">
-        <v>54</v>
-      </c>
-      <c r="E14" s="23">
+      <c r="D14" s="19">
+        <v>54</v>
+      </c>
+      <c r="E14" s="19">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="18">
         <v>45030</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="19">
         <v>4</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="20">
         <v>32</v>
       </c>
-      <c r="D15" s="23">
-        <v>54</v>
-      </c>
-      <c r="E15" s="23">
+      <c r="D15" s="19">
+        <v>54</v>
+      </c>
+      <c r="E15" s="19">
         <v>54</v>
       </c>
     </row>
@@ -2187,81 +2169,81 @@
       <c r="E17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="18">
         <v>45033</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="19">
         <v>2</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="20">
         <v>14</v>
       </c>
-      <c r="D18" s="23">
-        <v>54</v>
-      </c>
-      <c r="E18" s="23">
-        <v>54</v>
-      </c>
-      <c r="F18" s="20" t="s">
+      <c r="D18" s="19">
+        <v>54</v>
+      </c>
+      <c r="E18" s="19">
+        <v>54</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="18">
         <v>45034</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="19">
         <v>2</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="20">
         <v>14</v>
       </c>
-      <c r="D19" s="23">
-        <v>54</v>
-      </c>
-      <c r="E19" s="23">
+      <c r="D19" s="19">
+        <v>54</v>
+      </c>
+      <c r="E19" s="19">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
+      <c r="A20" s="18">
         <v>45035</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="19">
         <v>3</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="20">
         <v>21</v>
       </c>
-      <c r="D20" s="23">
-        <v>54</v>
-      </c>
-      <c r="E20" s="23">
-        <v>54</v>
-      </c>
-      <c r="F20" s="23">
+      <c r="D20" s="19">
+        <v>54</v>
+      </c>
+      <c r="E20" s="19">
+        <v>54</v>
+      </c>
+      <c r="F20" s="19">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+      <c r="A21" s="18">
         <v>45036</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="19">
         <v>2</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="20">
         <v>14</v>
       </c>
-      <c r="D21" s="23">
-        <v>54</v>
-      </c>
-      <c r="E21" s="23">
+      <c r="D21" s="19">
+        <v>54</v>
+      </c>
+      <c r="E21" s="19">
         <v>54</v>
       </c>
     </row>
@@ -2283,19 +2265,19 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
+      <c r="A23" s="18">
         <v>45038</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="19">
         <v>2</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="20">
         <v>14</v>
       </c>
-      <c r="D23" s="23">
-        <v>54</v>
-      </c>
-      <c r="E23" s="23">
+      <c r="D23" s="19">
+        <v>54</v>
+      </c>
+      <c r="E23" s="19">
         <v>54</v>
       </c>
     </row>
@@ -2317,115 +2299,123 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
+      <c r="A25" s="21">
         <v>45040</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="19">
         <v>2</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="20">
         <v>14</v>
       </c>
-      <c r="D25" s="23">
-        <v>54</v>
-      </c>
-      <c r="E25" s="23">
+      <c r="D25" s="19">
+        <v>54</v>
+      </c>
+      <c r="E25" s="19">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+      <c r="A26" s="21">
         <v>45041</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="19">
         <v>2</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="20">
         <v>14</v>
       </c>
-      <c r="D26" s="23">
-        <v>54</v>
-      </c>
-      <c r="E26" s="23">
+      <c r="D26" s="19">
+        <v>54</v>
+      </c>
+      <c r="E26" s="19">
         <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+      <c r="A27" s="21">
         <v>45042</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="19">
         <v>2</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="20">
         <v>14</v>
       </c>
-      <c r="D27" s="23">
-        <v>54</v>
-      </c>
-      <c r="E27" s="23">
+      <c r="D27" s="19">
+        <v>54</v>
+      </c>
+      <c r="E27" s="19">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
+      <c r="A28" s="21">
         <v>45043</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="19">
         <v>2</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="20">
         <v>14</v>
       </c>
-      <c r="D28" s="23">
-        <v>54</v>
-      </c>
-      <c r="E28" s="23">
+      <c r="D28" s="19">
+        <v>54</v>
+      </c>
+      <c r="E28" s="19">
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="25">
+      <c r="A29" s="21">
         <v>45044</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="19">
         <v>2</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="20">
         <v>14</v>
       </c>
-      <c r="D29" s="23">
-        <v>54</v>
-      </c>
-      <c r="E29" s="23">
+      <c r="D29" s="19">
+        <v>54</v>
+      </c>
+      <c r="E29" s="19">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="A30" s="21">
         <v>45045</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="19">
         <v>2</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="20">
         <v>14</v>
       </c>
-      <c r="D30" s="23">
-        <v>54</v>
-      </c>
-      <c r="E30" s="23">
+      <c r="D30" s="19">
+        <v>54</v>
+      </c>
+      <c r="E30" s="19">
         <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
+      <c r="A31" s="9">
         <v>45046</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
+      <c r="B31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
@@ -2436,8 +2426,8 @@
         <v>33</v>
       </c>
       <c r="C32" s="7">
-        <f>SUM(C18:C31)</f>
-        <v>161</v>
+        <f>SUM(C2:C31)</f>
+        <v>235</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2462,30 +2452,30 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B32)</f>
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>161</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,23 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92692EEF-228D-4392-BE63-F7286E901F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E0D564-D631-46A7-91B5-15E1FE6AADA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
     <sheet name="Fervereiro" sheetId="3" r:id="rId2"/>
     <sheet name="Março" sheetId="4" r:id="rId3"/>
     <sheet name="Abril" sheetId="6" r:id="rId4"/>
-    <sheet name="RELATORIO" sheetId="5" r:id="rId5"/>
+    <sheet name="Planilha1" sheetId="7" r:id="rId5"/>
+    <sheet name="RELATORIO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="11">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -129,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -190,6 +191,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1871,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="P26" sqref="P25:P26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E32" sqref="A1:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2442,6 +2459,347 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AFC8DB-A247-4E14-982E-55A4D73D3AFC}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
+        <v>45047</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="27">
+        <v>45048</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="27">
+        <v>45049</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="27">
+        <v>45050</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
+        <v>45051</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
+        <v>45052</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <v>45053</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="27">
+        <v>45054</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <v>45055</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
+        <v>45056</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <v>45057</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>45058</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>45059</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
+        <v>45060</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
+        <v>45061</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="27">
+        <v>45062</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
+        <v>45063</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
+        <v>45064</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
+        <v>45065</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
+        <v>45066</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
+        <v>45067</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="27">
+        <v>45068</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
+        <v>45069</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="27">
+        <v>45070</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="27">
+        <v>45071</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="27">
+        <v>45072</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="27">
+        <v>45073</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="27">
+        <v>45074</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="27">
+        <v>45075</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="27">
+        <v>45076</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="27">
+        <v>45077</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="6">
+        <f>SUM(B2:B31)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="7">
+        <f>SUM(C2:C31)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E0D564-D631-46A7-91B5-15E1FE6AADA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE533BAD-5569-46CA-883F-DAC306058142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -49,10 +49,10 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>&lt;- INICIO CTR ↓</t>
+    <t>↓ INICIO CTR ↓</t>
   </si>
   <si>
-    <t>&lt;- FIM ARQ</t>
+    <t>54      54      54</t>
   </si>
 </sst>
 </file>
@@ -71,7 +71,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,8 +102,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -126,11 +132,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -187,12 +230,6 @@
     <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -200,13 +237,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1329,10 +1387,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1886,18 +1944,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E32" sqref="A1:E32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E33" sqref="A1:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1910,10 +1968,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2186,33 +2244,20 @@
       <c r="E17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
-        <v>45033</v>
-      </c>
-      <c r="B18" s="19">
-        <v>2</v>
-      </c>
-      <c r="C18" s="20">
-        <v>14</v>
-      </c>
-      <c r="D18" s="19">
-        <v>54</v>
-      </c>
-      <c r="E18" s="19">
-        <v>54</v>
-      </c>
-      <c r="F18" s="16" t="s">
+      <c r="A18" s="30" t="s">
         <v>9</v>
       </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
-        <v>45034</v>
+        <v>45033</v>
       </c>
       <c r="B19" s="19">
         <v>2</v>
@@ -2229,13 +2274,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
-        <v>45035</v>
+        <v>45034</v>
       </c>
       <c r="B20" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="20">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D20" s="19">
         <v>54</v>
@@ -2243,98 +2288,94 @@
       <c r="E20" s="19">
         <v>54</v>
       </c>
-      <c r="F20" s="19">
-        <v>54</v>
-      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
+        <v>45035</v>
+      </c>
+      <c r="B21" s="19">
+        <v>3</v>
+      </c>
+      <c r="C21" s="20">
+        <v>21</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
         <v>45036</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B22" s="19">
         <v>2</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C22" s="20">
         <v>14</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D22" s="19">
         <v>54</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E22" s="19">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
         <v>45037</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="B23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
         <v>45038</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B24" s="19">
         <v>2</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C24" s="20">
         <v>14</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D24" s="19">
         <v>54</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E24" s="19">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
         <v>45039</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="21">
-        <v>45040</v>
-      </c>
-      <c r="B25" s="19">
-        <v>2</v>
-      </c>
-      <c r="C25" s="20">
-        <v>14</v>
-      </c>
-      <c r="D25" s="19">
-        <v>54</v>
-      </c>
-      <c r="E25" s="19">
-        <v>54</v>
+      <c r="B25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
-        <v>45041</v>
+        <v>45040</v>
       </c>
       <c r="B26" s="19">
         <v>2</v>
@@ -2351,7 +2392,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
-        <v>45042</v>
+        <v>45041</v>
       </c>
       <c r="B27" s="19">
         <v>2</v>
@@ -2368,7 +2409,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
-        <v>45043</v>
+        <v>45042</v>
       </c>
       <c r="B28" s="19">
         <v>2</v>
@@ -2385,7 +2426,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
-        <v>45044</v>
+        <v>45043</v>
       </c>
       <c r="B29" s="19">
         <v>2</v>
@@ -2402,7 +2443,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
-        <v>45045</v>
+        <v>45044</v>
       </c>
       <c r="B30" s="19">
         <v>2</v>
@@ -2418,43 +2459,62 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="21">
+        <v>45045</v>
+      </c>
+      <c r="B31" s="19">
+        <v>2</v>
+      </c>
+      <c r="C31" s="20">
+        <v>14</v>
+      </c>
+      <c r="D31" s="19">
+        <v>54</v>
+      </c>
+      <c r="E31" s="19">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
         <v>45046</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="6">
-        <f>SUM(B2:B31)</f>
+      <c r="B32" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="6">
+        <f>SUM(B2:B32)</f>
         <v>33</v>
       </c>
-      <c r="C32" s="7">
-        <f>SUM(C2:C31)</f>
+      <c r="C33" s="7">
+        <f>SUM(C2:C32)</f>
         <v>235</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.62992125984251968" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="150" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2462,19 +2522,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AFC8DB-A247-4E14-982E-55A4D73D3AFC}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="26" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="24" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -2483,13 +2543,13 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
+      <c r="A2" s="23">
         <v>45047</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -2506,277 +2566,277 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
+      <c r="A3" s="25">
         <v>45048</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
+      <c r="A4" s="25">
         <v>45049</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
+      <c r="A5" s="25">
         <v>45050</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="A6" s="25">
         <v>45051</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
+      <c r="A7" s="25">
         <v>45052</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
+      <c r="A8" s="25">
         <v>45053</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
+      <c r="A9" s="25">
         <v>45054</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="25">
         <v>45055</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
+      <c r="A11" s="25">
         <v>45056</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
+      <c r="A12" s="25">
         <v>45057</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
+      <c r="A13" s="25">
         <v>45058</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
+      <c r="A14" s="25">
         <v>45059</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
+      <c r="A15" s="25">
         <v>45060</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
+      <c r="A16" s="25">
         <v>45061</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="27">
+      <c r="A17" s="25">
         <v>45062</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
+      <c r="A18" s="25">
         <v>45063</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
+      <c r="A19" s="25">
         <v>45064</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
+      <c r="A20" s="25">
         <v>45065</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
+      <c r="A21" s="25">
         <v>45066</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
+      <c r="A22" s="25">
         <v>45067</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
+      <c r="A23" s="25">
         <v>45068</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
+      <c r="A24" s="25">
         <v>45069</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
+      <c r="A25" s="25">
         <v>45070</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
+      <c r="A26" s="25">
         <v>45071</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
+      <c r="A27" s="25">
         <v>45072</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="27">
+      <c r="A28" s="25">
         <v>45073</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="27">
+      <c r="A29" s="25">
         <v>45074</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="27">
+      <c r="A30" s="25">
         <v>45075</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="27">
+      <c r="A31" s="25">
         <v>45076</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="27">
+      <c r="A32" s="25">
         <v>45077</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="6">
@@ -2810,29 +2870,29 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="14">
-        <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B32)</f>
+        <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B33)</f>
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="12">
-        <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
+        <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33)</f>
         <v>235</v>
       </c>
     </row>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE533BAD-5569-46CA-883F-DAC306058142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAA13F8-2171-48EA-A875-03B2A583CB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
     <sheet name="Fervereiro" sheetId="3" r:id="rId2"/>
     <sheet name="Março" sheetId="4" r:id="rId3"/>
     <sheet name="Abril" sheetId="6" r:id="rId4"/>
-    <sheet name="Planilha1" sheetId="7" r:id="rId5"/>
+    <sheet name="Maio" sheetId="7" r:id="rId5"/>
     <sheet name="RELATORIO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -237,9 +237,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -247,9 +244,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -265,6 +259,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1387,10 +1387,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1946,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E33" sqref="A1:E33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="B31:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,10 +1968,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2246,13 +2246,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2299,10 +2299,10 @@
       <c r="C21" s="20">
         <v>21</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="34"/>
+      <c r="E21" s="32"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2522,8 +2522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AFC8DB-A247-4E14-982E-55A4D73D3AFC}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2543,10 +2543,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
@@ -2566,274 +2566,290 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+      <c r="A3" s="34">
         <v>45048</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="19">
+        <v>2</v>
+      </c>
+      <c r="C3" s="20">
+        <v>14</v>
+      </c>
+      <c r="D3" s="19">
+        <v>54</v>
+      </c>
+      <c r="E3" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="34">
         <v>45049</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="19">
+        <v>2</v>
+      </c>
+      <c r="C4" s="20">
+        <v>14</v>
+      </c>
+      <c r="D4" s="19">
+        <v>54</v>
+      </c>
+      <c r="E4" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="A5" s="34">
         <v>45050</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="A6" s="34">
         <v>45051</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="34">
         <v>45052</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="34">
         <v>45053</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="A9" s="34">
         <v>45054</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="34">
         <v>45055</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+      <c r="A11" s="34">
         <v>45056</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+      <c r="A12" s="34">
         <v>45057</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
+      <c r="A13" s="34">
         <v>45058</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="34">
         <v>45059</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
+      <c r="A15" s="34">
         <v>45060</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="A16" s="34">
         <v>45061</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
+      <c r="A17" s="34">
         <v>45062</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="34">
         <v>45063</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
+      <c r="A19" s="34">
         <v>45064</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+      <c r="A20" s="34">
         <v>45065</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
+      <c r="A21" s="34">
         <v>45066</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="34">
         <v>45067</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
+      <c r="A23" s="34">
         <v>45068</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
+      <c r="A24" s="34">
         <v>45069</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
+      <c r="A25" s="34">
         <v>45070</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+      <c r="A26" s="34">
         <v>45071</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+      <c r="A27" s="34">
         <v>45072</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
+      <c r="A28" s="34">
         <v>45073</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="25">
+      <c r="A29" s="34">
         <v>45074</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="A30" s="34">
         <v>45075</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
+      <c r="A31" s="34">
         <v>45076</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="25">
+      <c r="A32" s="34">
         <v>45077</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
@@ -2841,11 +2857,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B31)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C31)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2870,27 +2886,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B33)</f>
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33)</f>
         <v>235</v>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAA13F8-2171-48EA-A875-03B2A583CB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6039772-5457-4175-800F-350B7394F2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,6 +243,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -262,9 +265,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1387,10 +1387,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1968,10 +1968,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2246,13 +2246,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2299,10 +2299,10 @@
       <c r="C21" s="20">
         <v>21</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="32"/>
+      <c r="E21" s="33"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2523,7 +2523,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2543,10 +2543,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
@@ -2566,7 +2566,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="34">
+      <c r="A3" s="27">
         <v>45048</v>
       </c>
       <c r="B3" s="19">
@@ -2583,7 +2583,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
+      <c r="A4" s="27">
         <v>45049</v>
       </c>
       <c r="B4" s="19">
@@ -2600,16 +2600,24 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="34">
+      <c r="A5" s="27">
         <v>45050</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="B5" s="19">
+        <v>2</v>
+      </c>
+      <c r="C5" s="20">
+        <v>14</v>
+      </c>
+      <c r="D5" s="19">
+        <v>54</v>
+      </c>
+      <c r="E5" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="34">
+      <c r="A6" s="27">
         <v>45051</v>
       </c>
       <c r="B6" s="25"/>
@@ -2618,7 +2626,7 @@
       <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
+      <c r="A7" s="27">
         <v>45052</v>
       </c>
       <c r="B7" s="25"/>
@@ -2627,7 +2635,7 @@
       <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+      <c r="A8" s="27">
         <v>45053</v>
       </c>
       <c r="B8" s="25"/>
@@ -2636,7 +2644,7 @@
       <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+      <c r="A9" s="27">
         <v>45054</v>
       </c>
       <c r="B9" s="25"/>
@@ -2645,7 +2653,7 @@
       <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+      <c r="A10" s="27">
         <v>45055</v>
       </c>
       <c r="B10" s="25"/>
@@ -2654,7 +2662,7 @@
       <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
+      <c r="A11" s="27">
         <v>45056</v>
       </c>
       <c r="B11" s="25"/>
@@ -2663,7 +2671,7 @@
       <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+      <c r="A12" s="27">
         <v>45057</v>
       </c>
       <c r="B12" s="25"/>
@@ -2672,7 +2680,7 @@
       <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+      <c r="A13" s="27">
         <v>45058</v>
       </c>
       <c r="B13" s="25"/>
@@ -2681,7 +2689,7 @@
       <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="A14" s="27">
         <v>45059</v>
       </c>
       <c r="B14" s="25"/>
@@ -2690,7 +2698,7 @@
       <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
+      <c r="A15" s="27">
         <v>45060</v>
       </c>
       <c r="B15" s="25"/>
@@ -2699,7 +2707,7 @@
       <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+      <c r="A16" s="27">
         <v>45061</v>
       </c>
       <c r="B16" s="25"/>
@@ -2708,7 +2716,7 @@
       <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="34">
+      <c r="A17" s="27">
         <v>45062</v>
       </c>
       <c r="B17" s="25"/>
@@ -2717,7 +2725,7 @@
       <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
+      <c r="A18" s="27">
         <v>45063</v>
       </c>
       <c r="B18" s="25"/>
@@ -2726,7 +2734,7 @@
       <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
+      <c r="A19" s="27">
         <v>45064</v>
       </c>
       <c r="B19" s="25"/>
@@ -2735,7 +2743,7 @@
       <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="34">
+      <c r="A20" s="27">
         <v>45065</v>
       </c>
       <c r="B20" s="25"/>
@@ -2744,7 +2752,7 @@
       <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="34">
+      <c r="A21" s="27">
         <v>45066</v>
       </c>
       <c r="B21" s="25"/>
@@ -2753,7 +2761,7 @@
       <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="34">
+      <c r="A22" s="27">
         <v>45067</v>
       </c>
       <c r="B22" s="25"/>
@@ -2762,7 +2770,7 @@
       <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="34">
+      <c r="A23" s="27">
         <v>45068</v>
       </c>
       <c r="B23" s="25"/>
@@ -2771,7 +2779,7 @@
       <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="34">
+      <c r="A24" s="27">
         <v>45069</v>
       </c>
       <c r="B24" s="25"/>
@@ -2780,7 +2788,7 @@
       <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="34">
+      <c r="A25" s="27">
         <v>45070</v>
       </c>
       <c r="B25" s="25"/>
@@ -2789,7 +2797,7 @@
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="34">
+      <c r="A26" s="27">
         <v>45071</v>
       </c>
       <c r="B26" s="25"/>
@@ -2798,7 +2806,7 @@
       <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="34">
+      <c r="A27" s="27">
         <v>45072</v>
       </c>
       <c r="B27" s="25"/>
@@ -2807,7 +2815,7 @@
       <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="34">
+      <c r="A28" s="27">
         <v>45073</v>
       </c>
       <c r="B28" s="25"/>
@@ -2816,7 +2824,7 @@
       <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
+      <c r="A29" s="27">
         <v>45074</v>
       </c>
       <c r="B29" s="25"/>
@@ -2825,7 +2833,7 @@
       <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="34">
+      <c r="A30" s="27">
         <v>45075</v>
       </c>
       <c r="B30" s="25"/>
@@ -2834,7 +2842,7 @@
       <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="34">
+      <c r="A31" s="27">
         <v>45076</v>
       </c>
       <c r="B31" s="25"/>
@@ -2843,7 +2851,7 @@
       <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="34">
+      <c r="A32" s="27">
         <v>45077</v>
       </c>
       <c r="B32" s="25"/>
@@ -2857,11 +2865,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B31)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C31)</f>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2886,27 +2894,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B33)</f>
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33)</f>
         <v>235</v>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6039772-5457-4175-800F-350B7394F2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6069DB68-8955-4B25-8CE8-2089D1C6BAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="11">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -59,8 +59,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -230,20 +231,10 @@
     <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -267,6 +258,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1387,10 +1388,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1968,10 +1969,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2246,13 +2247,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2299,10 +2300,10 @@
       <c r="C21" s="20">
         <v>21</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="33"/>
+      <c r="E21" s="29"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2523,18 +2524,18 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" style="34" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -2543,13 +2544,13 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+      <c r="A2" s="32">
         <v>45047</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -2566,7 +2567,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
+      <c r="A3" s="33">
         <v>45048</v>
       </c>
       <c r="B3" s="19">
@@ -2583,7 +2584,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
+      <c r="A4" s="33">
         <v>45049</v>
       </c>
       <c r="B4" s="19">
@@ -2600,7 +2601,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
+      <c r="A5" s="33">
         <v>45050</v>
       </c>
       <c r="B5" s="19">
@@ -2617,259 +2618,283 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="A6" s="33">
         <v>45051</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="B6" s="19">
+        <v>2</v>
+      </c>
+      <c r="C6" s="20">
+        <v>14</v>
+      </c>
+      <c r="D6" s="19">
+        <v>54</v>
+      </c>
+      <c r="E6" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
+      <c r="A7" s="33">
         <v>45052</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="B7" s="19">
+        <v>2</v>
+      </c>
+      <c r="C7" s="20">
+        <v>14</v>
+      </c>
+      <c r="D7" s="19">
+        <v>54</v>
+      </c>
+      <c r="E7" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
+      <c r="A8" s="33">
         <v>45053</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="B8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
+      <c r="A9" s="33">
         <v>45054</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="33">
         <v>45055</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
+      <c r="A11" s="33">
         <v>45056</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
+      <c r="A12" s="33">
         <v>45057</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
+      <c r="A13" s="33">
         <v>45058</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
+      <c r="A14" s="33">
         <v>45059</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
+      <c r="A15" s="33">
         <v>45060</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
+      <c r="A16" s="33">
         <v>45061</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="27">
+      <c r="A17" s="33">
         <v>45062</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
+      <c r="A18" s="33">
         <v>45063</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
+      <c r="A19" s="33">
         <v>45064</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
+      <c r="A20" s="33">
         <v>45065</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
+      <c r="A21" s="33">
         <v>45066</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
+      <c r="A22" s="33">
         <v>45067</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
+      <c r="A23" s="33">
         <v>45068</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
+      <c r="A24" s="33">
         <v>45069</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
+      <c r="A25" s="33">
         <v>45070</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
+      <c r="A26" s="33">
         <v>45071</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
+      <c r="A27" s="33">
         <v>45072</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="27">
+      <c r="A28" s="33">
         <v>45073</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="27">
+      <c r="A29" s="33">
         <v>45074</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="27">
+      <c r="A30" s="33">
         <v>45075</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="27">
+      <c r="A31" s="33">
         <v>45076</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="27">
+      <c r="A32" s="33">
         <v>45077</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B31)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C31)</f>
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2894,27 +2919,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B33)</f>
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33)</f>
         <v>235</v>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6069DB68-8955-4B25-8CE8-2089D1C6BAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A38ADA-09A1-4E21-ABC6-BF268CC69287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="11">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -61,7 +61,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -237,6 +237,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -258,16 +268,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1388,10 +1388,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="24"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1969,10 +1969,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="24"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2247,13 +2247,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2300,10 +2300,10 @@
       <c r="C21" s="20">
         <v>21</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="29"/>
+      <c r="E21" s="33"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2524,18 +2524,18 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" style="34" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" style="27" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -2544,13 +2544,13 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="24"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+      <c r="A2" s="25">
         <v>45047</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -2567,7 +2567,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
+      <c r="A3" s="26">
         <v>45048</v>
       </c>
       <c r="B3" s="19">
@@ -2584,7 +2584,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+      <c r="A4" s="26">
         <v>45049</v>
       </c>
       <c r="B4" s="19">
@@ -2601,7 +2601,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
+      <c r="A5" s="26">
         <v>45050</v>
       </c>
       <c r="B5" s="19">
@@ -2618,7 +2618,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="26">
         <v>45051</v>
       </c>
       <c r="B6" s="19">
@@ -2635,7 +2635,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+      <c r="A7" s="26">
         <v>45052</v>
       </c>
       <c r="B7" s="19">
@@ -2652,7 +2652,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
+      <c r="A8" s="26">
         <v>45053</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2669,16 +2669,24 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+      <c r="A9" s="26">
         <v>45054</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="B9" s="19">
+        <v>1</v>
+      </c>
+      <c r="C9" s="20">
+        <v>7</v>
+      </c>
+      <c r="D9" s="19">
+        <v>54</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="26">
         <v>45055</v>
       </c>
       <c r="B10" s="22"/>
@@ -2687,7 +2695,7 @@
       <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
+      <c r="A11" s="26">
         <v>45056</v>
       </c>
       <c r="B11" s="22"/>
@@ -2696,7 +2704,7 @@
       <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
+      <c r="A12" s="26">
         <v>45057</v>
       </c>
       <c r="B12" s="22"/>
@@ -2705,7 +2713,7 @@
       <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
+      <c r="A13" s="26">
         <v>45058</v>
       </c>
       <c r="B13" s="22"/>
@@ -2714,7 +2722,7 @@
       <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
+      <c r="A14" s="26">
         <v>45059</v>
       </c>
       <c r="B14" s="22"/>
@@ -2723,7 +2731,7 @@
       <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
+      <c r="A15" s="26">
         <v>45060</v>
       </c>
       <c r="B15" s="22"/>
@@ -2732,7 +2740,7 @@
       <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
+      <c r="A16" s="26">
         <v>45061</v>
       </c>
       <c r="B16" s="22"/>
@@ -2741,7 +2749,7 @@
       <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
+      <c r="A17" s="26">
         <v>45062</v>
       </c>
       <c r="B17" s="22"/>
@@ -2750,7 +2758,7 @@
       <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+      <c r="A18" s="26">
         <v>45063</v>
       </c>
       <c r="B18" s="22"/>
@@ -2759,7 +2767,7 @@
       <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
+      <c r="A19" s="26">
         <v>45064</v>
       </c>
       <c r="B19" s="22"/>
@@ -2768,7 +2776,7 @@
       <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
+      <c r="A20" s="26">
         <v>45065</v>
       </c>
       <c r="B20" s="22"/>
@@ -2777,7 +2785,7 @@
       <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
+      <c r="A21" s="26">
         <v>45066</v>
       </c>
       <c r="B21" s="22"/>
@@ -2786,7 +2794,7 @@
       <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="33">
+      <c r="A22" s="26">
         <v>45067</v>
       </c>
       <c r="B22" s="22"/>
@@ -2795,7 +2803,7 @@
       <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
+      <c r="A23" s="26">
         <v>45068</v>
       </c>
       <c r="B23" s="22"/>
@@ -2804,7 +2812,7 @@
       <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="33">
+      <c r="A24" s="26">
         <v>45069</v>
       </c>
       <c r="B24" s="22"/>
@@ -2813,7 +2821,7 @@
       <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
+      <c r="A25" s="26">
         <v>45070</v>
       </c>
       <c r="B25" s="22"/>
@@ -2822,7 +2830,7 @@
       <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="33">
+      <c r="A26" s="26">
         <v>45071</v>
       </c>
       <c r="B26" s="22"/>
@@ -2831,7 +2839,7 @@
       <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="33">
+      <c r="A27" s="26">
         <v>45072</v>
       </c>
       <c r="B27" s="22"/>
@@ -2840,7 +2848,7 @@
       <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="33">
+      <c r="A28" s="26">
         <v>45073</v>
       </c>
       <c r="B28" s="22"/>
@@ -2849,7 +2857,7 @@
       <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="33">
+      <c r="A29" s="26">
         <v>45074</v>
       </c>
       <c r="B29" s="22"/>
@@ -2858,7 +2866,7 @@
       <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="33">
+      <c r="A30" s="26">
         <v>45075</v>
       </c>
       <c r="B30" s="22"/>
@@ -2867,7 +2875,7 @@
       <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="33">
+      <c r="A31" s="26">
         <v>45076</v>
       </c>
       <c r="B31" s="22"/>
@@ -2876,7 +2884,7 @@
       <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="33">
+      <c r="A32" s="26">
         <v>45077</v>
       </c>
       <c r="B32" s="22"/>
@@ -2885,16 +2893,16 @@
       <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B31)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C31)</f>
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2919,27 +2927,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B33)</f>
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33)</f>
         <v>235</v>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A38ADA-09A1-4E21-ABC6-BF268CC69287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69399288-FA38-4B18-B074-C1BC3DD66119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2524,7 +2524,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2689,28 +2689,52 @@
       <c r="A10" s="26">
         <v>45055</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="B10" s="19">
+        <v>2</v>
+      </c>
+      <c r="C10" s="20">
+        <v>14</v>
+      </c>
+      <c r="D10" s="19">
+        <v>54</v>
+      </c>
+      <c r="E10" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>45056</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="B11" s="19">
+        <v>2</v>
+      </c>
+      <c r="C11" s="20">
+        <v>14</v>
+      </c>
+      <c r="D11" s="19">
+        <v>54</v>
+      </c>
+      <c r="E11" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>45057</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+      <c r="B12" s="19">
+        <v>2</v>
+      </c>
+      <c r="C12" s="20">
+        <v>14</v>
+      </c>
+      <c r="D12" s="19">
+        <v>54</v>
+      </c>
+      <c r="E12" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
@@ -2898,11 +2922,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B31)</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C31)</f>
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69399288-FA38-4B18-B074-C1BC3DD66119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82BFC2F-64AD-4698-97D7-0B698AC702EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9855" yWindow="1575" windowWidth="11730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -2524,7 +2524,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B13" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2740,19 +2740,35 @@
       <c r="A13" s="26">
         <v>45058</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="B13" s="19">
+        <v>2</v>
+      </c>
+      <c r="C13" s="20">
+        <v>14</v>
+      </c>
+      <c r="D13" s="19">
+        <v>54</v>
+      </c>
+      <c r="E13" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>45059</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="B14" s="19">
+        <v>2</v>
+      </c>
+      <c r="C14" s="20">
+        <v>14</v>
+      </c>
+      <c r="D14" s="19">
+        <v>54</v>
+      </c>
+      <c r="E14" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
@@ -2922,11 +2938,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B31)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C31)</f>
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82BFC2F-64AD-4698-97D7-0B698AC702EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969F0CBD-586F-46E0-889E-9490F5F252C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9855" yWindow="1575" windowWidth="11730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -59,9 +59,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -237,16 +236,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -268,6 +257,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1388,10 +1387,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1969,10 +1968,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2247,13 +2246,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2300,10 +2299,10 @@
       <c r="C21" s="20">
         <v>21</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="33"/>
+      <c r="E21" s="29"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2524,18 +2523,18 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B14"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="34" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -2544,13 +2543,13 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
+      <c r="A2" s="32">
         <v>45047</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -2567,7 +2566,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+      <c r="A3" s="33">
         <v>45048</v>
       </c>
       <c r="B3" s="19">
@@ -2584,7 +2583,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+      <c r="A4" s="33">
         <v>45049</v>
       </c>
       <c r="B4" s="19">
@@ -2601,7 +2600,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="A5" s="33">
         <v>45050</v>
       </c>
       <c r="B5" s="19">
@@ -2618,7 +2617,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+      <c r="A6" s="33">
         <v>45051</v>
       </c>
       <c r="B6" s="19">
@@ -2635,7 +2634,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+      <c r="A7" s="33">
         <v>45052</v>
       </c>
       <c r="B7" s="19">
@@ -2652,7 +2651,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="33">
         <v>45053</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2669,7 +2668,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+      <c r="A9" s="33">
         <v>45054</v>
       </c>
       <c r="B9" s="19">
@@ -2686,7 +2685,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="33">
         <v>45055</v>
       </c>
       <c r="B10" s="19">
@@ -2703,7 +2702,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="A11" s="33">
         <v>45056</v>
       </c>
       <c r="B11" s="19">
@@ -2720,7 +2719,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+      <c r="A12" s="33">
         <v>45057</v>
       </c>
       <c r="B12" s="19">
@@ -2737,7 +2736,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
+      <c r="A13" s="33">
         <v>45058</v>
       </c>
       <c r="B13" s="19">
@@ -2754,7 +2753,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+      <c r="A14" s="33">
         <v>45059</v>
       </c>
       <c r="B14" s="19">
@@ -2771,34 +2770,58 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
+      <c r="A15" s="33">
         <v>45060</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="B15" s="19">
+        <v>2</v>
+      </c>
+      <c r="C15" s="20">
+        <v>14</v>
+      </c>
+      <c r="D15" s="19">
+        <v>54</v>
+      </c>
+      <c r="E15" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
+      <c r="A16" s="33">
         <v>45061</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="B16" s="19">
+        <v>2</v>
+      </c>
+      <c r="C16" s="20">
+        <v>14</v>
+      </c>
+      <c r="D16" s="19">
+        <v>54</v>
+      </c>
+      <c r="E16" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
+      <c r="A17" s="33">
         <v>45062</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="B17" s="19">
+        <v>2</v>
+      </c>
+      <c r="C17" s="20">
+        <v>14</v>
+      </c>
+      <c r="D17" s="19">
+        <v>54</v>
+      </c>
+      <c r="E17" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+      <c r="A18" s="33">
         <v>45063</v>
       </c>
       <c r="B18" s="22"/>
@@ -2807,7 +2830,7 @@
       <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
+      <c r="A19" s="33">
         <v>45064</v>
       </c>
       <c r="B19" s="22"/>
@@ -2816,7 +2839,7 @@
       <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
+      <c r="A20" s="33">
         <v>45065</v>
       </c>
       <c r="B20" s="22"/>
@@ -2825,7 +2848,7 @@
       <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="26">
+      <c r="A21" s="33">
         <v>45066</v>
       </c>
       <c r="B21" s="22"/>
@@ -2834,7 +2857,7 @@
       <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
+      <c r="A22" s="33">
         <v>45067</v>
       </c>
       <c r="B22" s="22"/>
@@ -2843,7 +2866,7 @@
       <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="26">
+      <c r="A23" s="33">
         <v>45068</v>
       </c>
       <c r="B23" s="22"/>
@@ -2852,7 +2875,7 @@
       <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="26">
+      <c r="A24" s="33">
         <v>45069</v>
       </c>
       <c r="B24" s="22"/>
@@ -2861,7 +2884,7 @@
       <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="26">
+      <c r="A25" s="33">
         <v>45070</v>
       </c>
       <c r="B25" s="22"/>
@@ -2870,7 +2893,7 @@
       <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
+      <c r="A26" s="33">
         <v>45071</v>
       </c>
       <c r="B26" s="22"/>
@@ -2879,7 +2902,7 @@
       <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="26">
+      <c r="A27" s="33">
         <v>45072</v>
       </c>
       <c r="B27" s="22"/>
@@ -2888,7 +2911,7 @@
       <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="26">
+      <c r="A28" s="33">
         <v>45073</v>
       </c>
       <c r="B28" s="22"/>
@@ -2897,7 +2920,7 @@
       <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="26">
+      <c r="A29" s="33">
         <v>45074</v>
       </c>
       <c r="B29" s="22"/>
@@ -2906,7 +2929,7 @@
       <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="26">
+      <c r="A30" s="33">
         <v>45075</v>
       </c>
       <c r="B30" s="22"/>
@@ -2915,7 +2938,7 @@
       <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="26">
+      <c r="A31" s="33">
         <v>45076</v>
       </c>
       <c r="B31" s="22"/>
@@ -2924,7 +2947,7 @@
       <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="26">
+      <c r="A32" s="33">
         <v>45077</v>
       </c>
       <c r="B32" s="22"/>
@@ -2933,16 +2956,16 @@
       <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B31)</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C33" s="7">
-        <f>SUM(C2:C31)</f>
-        <v>147</v>
+        <f>SUM(C2:C32)</f>
+        <v>189</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2967,27 +2990,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B33)</f>
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33)</f>
         <v>235</v>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969F0CBD-586F-46E0-889E-9490F5F252C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E1659B-1A54-46D4-A5D9-9F6C706641A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -236,6 +236,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -257,16 +267,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1387,10 +1387,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="24"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1968,10 +1968,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="24"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2246,13 +2246,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2299,10 +2299,10 @@
       <c r="C21" s="20">
         <v>21</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="29"/>
+      <c r="E21" s="33"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2523,18 +2523,18 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="34" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="27" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -2543,13 +2543,13 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="24"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+      <c r="A2" s="25">
         <v>45047</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -2566,7 +2566,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
+      <c r="A3" s="26">
         <v>45048</v>
       </c>
       <c r="B3" s="19">
@@ -2583,7 +2583,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+      <c r="A4" s="26">
         <v>45049</v>
       </c>
       <c r="B4" s="19">
@@ -2600,7 +2600,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
+      <c r="A5" s="26">
         <v>45050</v>
       </c>
       <c r="B5" s="19">
@@ -2617,7 +2617,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="26">
         <v>45051</v>
       </c>
       <c r="B6" s="19">
@@ -2634,7 +2634,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+      <c r="A7" s="26">
         <v>45052</v>
       </c>
       <c r="B7" s="19">
@@ -2651,7 +2651,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
+      <c r="A8" s="26">
         <v>45053</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2668,7 +2668,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+      <c r="A9" s="26">
         <v>45054</v>
       </c>
       <c r="B9" s="19">
@@ -2685,7 +2685,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="26">
         <v>45055</v>
       </c>
       <c r="B10" s="19">
@@ -2702,7 +2702,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
+      <c r="A11" s="26">
         <v>45056</v>
       </c>
       <c r="B11" s="19">
@@ -2719,7 +2719,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
+      <c r="A12" s="26">
         <v>45057</v>
       </c>
       <c r="B12" s="19">
@@ -2736,7 +2736,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
+      <c r="A13" s="26">
         <v>45058</v>
       </c>
       <c r="B13" s="19">
@@ -2753,7 +2753,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
+      <c r="A14" s="26">
         <v>45059</v>
       </c>
       <c r="B14" s="19">
@@ -2770,7 +2770,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
+      <c r="A15" s="26">
         <v>45060</v>
       </c>
       <c r="B15" s="19">
@@ -2787,7 +2787,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
+      <c r="A16" s="26">
         <v>45061</v>
       </c>
       <c r="B16" s="19">
@@ -2804,7 +2804,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
+      <c r="A17" s="26">
         <v>45062</v>
       </c>
       <c r="B17" s="19">
@@ -2821,16 +2821,24 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+      <c r="A18" s="26">
         <v>45063</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="B18" s="19">
+        <v>2</v>
+      </c>
+      <c r="C18" s="20">
+        <v>14</v>
+      </c>
+      <c r="D18" s="19">
+        <v>54</v>
+      </c>
+      <c r="E18" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
+      <c r="A19" s="26">
         <v>45064</v>
       </c>
       <c r="B19" s="22"/>
@@ -2839,7 +2847,7 @@
       <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
+      <c r="A20" s="26">
         <v>45065</v>
       </c>
       <c r="B20" s="22"/>
@@ -2848,7 +2856,7 @@
       <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
+      <c r="A21" s="26">
         <v>45066</v>
       </c>
       <c r="B21" s="22"/>
@@ -2857,7 +2865,7 @@
       <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="33">
+      <c r="A22" s="26">
         <v>45067</v>
       </c>
       <c r="B22" s="22"/>
@@ -2866,7 +2874,7 @@
       <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
+      <c r="A23" s="26">
         <v>45068</v>
       </c>
       <c r="B23" s="22"/>
@@ -2875,7 +2883,7 @@
       <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="33">
+      <c r="A24" s="26">
         <v>45069</v>
       </c>
       <c r="B24" s="22"/>
@@ -2884,7 +2892,7 @@
       <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
+      <c r="A25" s="26">
         <v>45070</v>
       </c>
       <c r="B25" s="22"/>
@@ -2893,7 +2901,7 @@
       <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="33">
+      <c r="A26" s="26">
         <v>45071</v>
       </c>
       <c r="B26" s="22"/>
@@ -2902,7 +2910,7 @@
       <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="33">
+      <c r="A27" s="26">
         <v>45072</v>
       </c>
       <c r="B27" s="22"/>
@@ -2911,7 +2919,7 @@
       <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="33">
+      <c r="A28" s="26">
         <v>45073</v>
       </c>
       <c r="B28" s="22"/>
@@ -2920,7 +2928,7 @@
       <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="33">
+      <c r="A29" s="26">
         <v>45074</v>
       </c>
       <c r="B29" s="22"/>
@@ -2929,7 +2937,7 @@
       <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="33">
+      <c r="A30" s="26">
         <v>45075</v>
       </c>
       <c r="B30" s="22"/>
@@ -2938,7 +2946,7 @@
       <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="33">
+      <c r="A31" s="26">
         <v>45076</v>
       </c>
       <c r="B31" s="22"/>
@@ -2947,7 +2955,7 @@
       <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="33">
+      <c r="A32" s="26">
         <v>45077</v>
       </c>
       <c r="B32" s="22"/>
@@ -2956,16 +2964,16 @@
       <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B31)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2990,27 +2998,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B33)</f>
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33)</f>
         <v>235</v>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969F0CBD-586F-46E0-889E-9490F5F252C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -15,7 +14,7 @@
     <sheet name="Maio" sheetId="7" r:id="rId5"/>
     <sheet name="RELATORIO" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -236,6 +235,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -257,16 +266,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -287,7 +286,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -325,7 +324,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -360,23 +359,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -412,26 +394,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -604,21 +569,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -629,7 +594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44927</v>
       </c>
@@ -640,7 +605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44928</v>
       </c>
@@ -651,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44929</v>
       </c>
@@ -662,7 +627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44930</v>
       </c>
@@ -673,7 +638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>44931</v>
       </c>
@@ -684,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44932</v>
       </c>
@@ -695,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44933</v>
       </c>
@@ -706,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44934</v>
       </c>
@@ -717,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44935</v>
       </c>
@@ -728,7 +693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44936</v>
       </c>
@@ -739,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44937</v>
       </c>
@@ -750,7 +715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44938</v>
       </c>
@@ -761,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44939</v>
       </c>
@@ -772,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44940</v>
       </c>
@@ -783,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44941</v>
       </c>
@@ -794,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44942</v>
       </c>
@@ -805,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44943</v>
       </c>
@@ -816,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44944</v>
       </c>
@@ -827,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44945</v>
       </c>
@@ -838,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44946</v>
       </c>
@@ -849,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44947</v>
       </c>
@@ -860,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44948</v>
       </c>
@@ -871,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44949</v>
       </c>
@@ -882,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44950</v>
       </c>
@@ -893,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44951</v>
       </c>
@@ -904,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>44952</v>
       </c>
@@ -915,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>44953</v>
       </c>
@@ -926,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44954</v>
       </c>
@@ -937,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>44955</v>
       </c>
@@ -948,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>44956</v>
       </c>
@@ -959,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>44957</v>
       </c>
@@ -970,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -983,19 +948,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
     </row>
   </sheetData>
@@ -1004,21 +969,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1029,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44958</v>
       </c>
@@ -1040,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44959</v>
       </c>
@@ -1051,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44960</v>
       </c>
@@ -1062,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44961</v>
       </c>
@@ -1073,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>44962</v>
       </c>
@@ -1084,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44963</v>
       </c>
@@ -1095,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44964</v>
       </c>
@@ -1106,7 +1071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44965</v>
       </c>
@@ -1117,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44966</v>
       </c>
@@ -1128,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44967</v>
       </c>
@@ -1139,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44968</v>
       </c>
@@ -1150,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44969</v>
       </c>
@@ -1161,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44970</v>
       </c>
@@ -1172,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44971</v>
       </c>
@@ -1183,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44972</v>
       </c>
@@ -1194,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44973</v>
       </c>
@@ -1205,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44974</v>
       </c>
@@ -1216,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44975</v>
       </c>
@@ -1227,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44976</v>
       </c>
@@ -1238,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44977</v>
       </c>
@@ -1249,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44978</v>
       </c>
@@ -1260,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44979</v>
       </c>
@@ -1271,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44980</v>
       </c>
@@ -1282,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44981</v>
       </c>
@@ -1293,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44982</v>
       </c>
@@ -1304,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>44983</v>
       </c>
@@ -1315,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>44984</v>
       </c>
@@ -1326,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44985</v>
       </c>
@@ -1337,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1362,22 +1327,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1387,12 +1352,12 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="24"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44986</v>
       </c>
@@ -1409,7 +1374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44987</v>
       </c>
@@ -1426,7 +1391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44988</v>
       </c>
@@ -1443,7 +1408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44989</v>
       </c>
@@ -1460,7 +1425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>44990</v>
       </c>
@@ -1477,7 +1442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44991</v>
       </c>
@@ -1494,7 +1459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44992</v>
       </c>
@@ -1511,7 +1476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44993</v>
       </c>
@@ -1528,7 +1493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44994</v>
       </c>
@@ -1545,7 +1510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44995</v>
       </c>
@@ -1562,7 +1527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44996</v>
       </c>
@@ -1579,7 +1544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44997</v>
       </c>
@@ -1596,7 +1561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44998</v>
       </c>
@@ -1613,7 +1578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44999</v>
       </c>
@@ -1630,7 +1595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>45000</v>
       </c>
@@ -1647,7 +1612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>45001</v>
       </c>
@@ -1664,7 +1629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>45002</v>
       </c>
@@ -1681,7 +1646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>45003</v>
       </c>
@@ -1698,7 +1663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>45004</v>
       </c>
@@ -1715,7 +1680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>45005</v>
       </c>
@@ -1732,7 +1697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>45006</v>
       </c>
@@ -1749,7 +1714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>45007</v>
       </c>
@@ -1766,7 +1731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>45008</v>
       </c>
@@ -1783,7 +1748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>45009</v>
       </c>
@@ -1800,7 +1765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>45010</v>
       </c>
@@ -1817,7 +1782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>45011</v>
       </c>
@@ -1834,7 +1799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>45012</v>
       </c>
@@ -1851,7 +1816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>45013</v>
       </c>
@@ -1868,7 +1833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>45014</v>
       </c>
@@ -1885,7 +1850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>45015</v>
       </c>
@@ -1902,7 +1867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>45016</v>
       </c>
@@ -1919,7 +1884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -1943,22 +1908,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E31" sqref="B31:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1968,12 +1933,12 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="24"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>45017</v>
       </c>
@@ -1990,7 +1955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>45018</v>
       </c>
@@ -2007,7 +1972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>45019</v>
       </c>
@@ -2024,7 +1989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>45020</v>
       </c>
@@ -2041,7 +2006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>45021</v>
       </c>
@@ -2058,7 +2023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>45022</v>
       </c>
@@ -2075,7 +2040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>45023</v>
       </c>
@@ -2092,7 +2057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>45024</v>
       </c>
@@ -2109,7 +2074,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>45025</v>
       </c>
@@ -2126,7 +2091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>45026</v>
       </c>
@@ -2143,7 +2108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>45027</v>
       </c>
@@ -2160,7 +2125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>45028</v>
       </c>
@@ -2177,7 +2142,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>45029</v>
       </c>
@@ -2194,7 +2159,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>45030</v>
       </c>
@@ -2211,7 +2176,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>45031</v>
       </c>
@@ -2228,7 +2193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>45032</v>
       </c>
@@ -2245,17 +2210,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="17"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>45033</v>
       </c>
@@ -2272,7 +2237,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>45034</v>
       </c>
@@ -2289,7 +2254,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>45035</v>
       </c>
@@ -2299,13 +2264,13 @@
       <c r="C21" s="20">
         <v>21</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="29"/>
+      <c r="E21" s="33"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>45036</v>
       </c>
@@ -2322,7 +2287,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>45037</v>
       </c>
@@ -2339,7 +2304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>45038</v>
       </c>
@@ -2356,7 +2321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>45039</v>
       </c>
@@ -2373,7 +2338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
         <v>45040</v>
       </c>
@@ -2390,7 +2355,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="21">
         <v>45041</v>
       </c>
@@ -2407,7 +2372,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="21">
         <v>45042</v>
       </c>
@@ -2424,7 +2389,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="21">
         <v>45043</v>
       </c>
@@ -2441,7 +2406,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="21">
         <v>45044</v>
       </c>
@@ -2458,7 +2423,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <v>45045</v>
       </c>
@@ -2475,7 +2440,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>45046</v>
       </c>
@@ -2492,7 +2457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -2519,22 +2484,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AFC8DB-A247-4E14-982E-55A4D73D3AFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -2543,13 +2508,13 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="24"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="25">
         <v>45047</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -2565,8 +2530,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="26">
         <v>45048</v>
       </c>
       <c r="B3" s="19">
@@ -2582,8 +2547,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="26">
         <v>45049</v>
       </c>
       <c r="B4" s="19">
@@ -2599,8 +2564,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="26">
         <v>45050</v>
       </c>
       <c r="B5" s="19">
@@ -2616,8 +2581,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="26">
         <v>45051</v>
       </c>
       <c r="B6" s="19">
@@ -2633,8 +2598,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="26">
         <v>45052</v>
       </c>
       <c r="B7" s="19">
@@ -2650,8 +2615,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="26">
         <v>45053</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2667,8 +2632,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="26">
         <v>45054</v>
       </c>
       <c r="B9" s="19">
@@ -2684,8 +2649,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="26">
         <v>45055</v>
       </c>
       <c r="B10" s="19">
@@ -2701,8 +2666,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="26">
         <v>45056</v>
       </c>
       <c r="B11" s="19">
@@ -2718,8 +2683,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="26">
         <v>45057</v>
       </c>
       <c r="B12" s="19">
@@ -2735,8 +2700,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="26">
         <v>45058</v>
       </c>
       <c r="B13" s="19">
@@ -2752,8 +2717,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="26">
         <v>45059</v>
       </c>
       <c r="B14" s="19">
@@ -2769,8 +2734,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="26">
         <v>45060</v>
       </c>
       <c r="B15" s="19">
@@ -2786,8 +2751,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="26">
         <v>45061</v>
       </c>
       <c r="B16" s="19">
@@ -2803,8 +2768,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="26">
         <v>45062</v>
       </c>
       <c r="B17" s="19">
@@ -2820,26 +2785,42 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="26">
         <v>45063</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
+      <c r="B18" s="19">
+        <v>2</v>
+      </c>
+      <c r="C18" s="20">
+        <v>14</v>
+      </c>
+      <c r="D18" s="19">
+        <v>54</v>
+      </c>
+      <c r="E18" s="19">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="26">
         <v>45064</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
+      <c r="B19" s="19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="20">
+        <v>14</v>
+      </c>
+      <c r="D19" s="19">
+        <v>54</v>
+      </c>
+      <c r="E19" s="19">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="26">
         <v>45065</v>
       </c>
       <c r="B20" s="22"/>
@@ -2847,8 +2828,8 @@
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="26">
         <v>45066</v>
       </c>
       <c r="B21" s="22"/>
@@ -2856,8 +2837,8 @@
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="33">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="26">
         <v>45067</v>
       </c>
       <c r="B22" s="22"/>
@@ -2865,8 +2846,8 @@
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="26">
         <v>45068</v>
       </c>
       <c r="B23" s="22"/>
@@ -2874,8 +2855,8 @@
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="33">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="26">
         <v>45069</v>
       </c>
       <c r="B24" s="22"/>
@@ -2883,8 +2864,8 @@
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="26">
         <v>45070</v>
       </c>
       <c r="B25" s="22"/>
@@ -2892,8 +2873,8 @@
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="33">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="26">
         <v>45071</v>
       </c>
       <c r="B26" s="22"/>
@@ -2901,8 +2882,8 @@
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="33">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="26">
         <v>45072</v>
       </c>
       <c r="B27" s="22"/>
@@ -2910,8 +2891,8 @@
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="33">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="26">
         <v>45073</v>
       </c>
       <c r="B28" s="22"/>
@@ -2919,8 +2900,8 @@
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="33">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="26">
         <v>45074</v>
       </c>
       <c r="B29" s="22"/>
@@ -2928,8 +2909,8 @@
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="33">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="26">
         <v>45075</v>
       </c>
       <c r="B30" s="22"/>
@@ -2937,8 +2918,8 @@
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="33">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="26">
         <v>45076</v>
       </c>
       <c r="B31" s="22"/>
@@ -2946,8 +2927,8 @@
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="33">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="26">
         <v>45077</v>
       </c>
       <c r="B32" s="22"/>
@@ -2955,17 +2936,17 @@
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B31)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2980,37 +2961,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B33)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33)</f>
         <v>235</v>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -2487,7 +2487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -2964,8 +2964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2993,8 +2993,8 @@
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="12">
-        <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33)</f>
-        <v>235</v>
+        <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33,Maio!C33)</f>
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E1659B-1A54-46D4-A5D9-9F6C706641A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2444745-6C6F-4C9F-A579-9310DB24E1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2523,7 +2523,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C18"/>
+      <selection activeCell="A21" sqref="A21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2651,7 +2651,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="25">
         <v>45053</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2841,28 +2841,52 @@
       <c r="A19" s="26">
         <v>45064</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="B19" s="19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="20">
+        <v>14</v>
+      </c>
+      <c r="D19" s="19">
+        <v>54</v>
+      </c>
+      <c r="E19" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>45065</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="B20" s="19">
+        <v>2</v>
+      </c>
+      <c r="C20" s="20">
+        <v>14</v>
+      </c>
+      <c r="D20" s="19">
+        <v>54</v>
+      </c>
+      <c r="E20" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>45066</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
+      <c r="B21" s="19">
+        <v>2</v>
+      </c>
+      <c r="C21" s="20">
+        <v>14</v>
+      </c>
+      <c r="D21" s="19">
+        <v>54</v>
+      </c>
+      <c r="E21" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
@@ -2969,11 +2993,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B31)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2444745-6C6F-4C9F-A579-9310DB24E1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615C618C-87F4-483D-92D3-F634454F9A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="11">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -2522,8 +2522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AFC8DB-A247-4E14-982E-55A4D73D3AFC}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:E21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2892,19 +2892,35 @@
       <c r="A22" s="26">
         <v>45067</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
+      <c r="B22" s="19">
+        <v>2</v>
+      </c>
+      <c r="C22" s="20">
+        <v>14</v>
+      </c>
+      <c r="D22" s="19">
+        <v>54</v>
+      </c>
+      <c r="E22" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="26">
+      <c r="A23" s="25">
         <v>45068</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+      <c r="B23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
@@ -2993,11 +3009,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B31)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615C618C-87F4-483D-92D3-F634454F9A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F15219-5A30-4835-A87D-00B796F8F478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2523,7 +2523,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2926,10 +2926,18 @@
       <c r="A24" s="26">
         <v>45069</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
+      <c r="B24" s="19">
+        <v>2</v>
+      </c>
+      <c r="C24" s="20">
+        <v>14</v>
+      </c>
+      <c r="D24" s="19">
+        <v>54</v>
+      </c>
+      <c r="E24" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
@@ -3009,11 +3017,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B31)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F15219-5A30-4835-A87D-00B796F8F478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8005D0-CEEF-4831-998B-F6C510FD7BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2523,7 +2523,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A25" sqref="A25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2943,10 +2943,18 @@
       <c r="A25" s="26">
         <v>45070</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="B25" s="19">
+        <v>2</v>
+      </c>
+      <c r="C25" s="20">
+        <v>14</v>
+      </c>
+      <c r="D25" s="19">
+        <v>54</v>
+      </c>
+      <c r="E25" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -3017,11 +3025,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B31)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8005D0-CEEF-4831-998B-F6C510FD7BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1262B671-F2EA-47F1-9033-FD4A4EA0C31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2523,7 +2523,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:F25"/>
+      <selection activeCell="B25" sqref="B25:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2960,19 +2960,35 @@
       <c r="A26" s="26">
         <v>45071</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+      <c r="B26" s="19">
+        <v>2</v>
+      </c>
+      <c r="C26" s="20">
+        <v>14</v>
+      </c>
+      <c r="D26" s="19">
+        <v>54</v>
+      </c>
+      <c r="E26" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>45072</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+      <c r="B27" s="19">
+        <v>2</v>
+      </c>
+      <c r="C27" s="20">
+        <v>14</v>
+      </c>
+      <c r="D27" s="19">
+        <v>54</v>
+      </c>
+      <c r="E27" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
@@ -3025,11 +3041,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B31)</f>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1262B671-F2EA-47F1-9033-FD4A4EA0C31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0A4056-5748-435C-899B-E196DDCDEE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="11">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -2522,8 +2522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AFC8DB-A247-4E14-982E-55A4D73D3AFC}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2994,19 +2994,35 @@
       <c r="A28" s="26">
         <v>45073</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+      <c r="B28" s="19">
+        <v>2</v>
+      </c>
+      <c r="C28" s="20">
+        <v>14</v>
+      </c>
+      <c r="D28" s="19">
+        <v>54</v>
+      </c>
+      <c r="E28" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="26">
+      <c r="A29" s="25">
         <v>45074</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
+      <c r="B29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
@@ -3041,11 +3057,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B31)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0A4056-5748-435C-899B-E196DDCDEE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EBF0F4-CD9F-432A-96FE-91727A2AC7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2523,7 +2523,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3028,10 +3028,18 @@
       <c r="A30" s="26">
         <v>45075</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
+      <c r="B30" s="19">
+        <v>2</v>
+      </c>
+      <c r="C30" s="20">
+        <v>14</v>
+      </c>
+      <c r="D30" s="19">
+        <v>54</v>
+      </c>
+      <c r="E30" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
@@ -3057,11 +3065,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B31)</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EBF0F4-CD9F-432A-96FE-91727A2AC7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C7298C-3268-44E6-A3CE-A2A5D04636CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2522,8 +2522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AFC8DB-A247-4E14-982E-55A4D73D3AFC}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3045,10 +3045,18 @@
       <c r="A31" s="26">
         <v>45076</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
+      <c r="B31" s="19">
+        <v>2</v>
+      </c>
+      <c r="C31" s="20">
+        <v>14</v>
+      </c>
+      <c r="D31" s="19">
+        <v>54</v>
+      </c>
+      <c r="E31" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
@@ -3065,11 +3073,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B31)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C7298C-3268-44E6-A3CE-A2A5D04636CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA050F2-9E80-47D8-99B8-EF78073CC4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -228,12 +228,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1387,10 +1381,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1968,10 +1962,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2246,13 +2240,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2299,10 +2293,10 @@
       <c r="C21" s="20">
         <v>21</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="33"/>
+      <c r="E21" s="31"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2522,19 +2516,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AFC8DB-A247-4E14-982E-55A4D73D3AFC}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="25" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -2543,13 +2537,13 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
+      <c r="A2" s="23">
         <v>45047</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -2566,7 +2560,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+      <c r="A3" s="24">
         <v>45048</v>
       </c>
       <c r="B3" s="19">
@@ -2583,7 +2577,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+      <c r="A4" s="24">
         <v>45049</v>
       </c>
       <c r="B4" s="19">
@@ -2600,7 +2594,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="A5" s="24">
         <v>45050</v>
       </c>
       <c r="B5" s="19">
@@ -2617,7 +2611,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+      <c r="A6" s="24">
         <v>45051</v>
       </c>
       <c r="B6" s="19">
@@ -2634,7 +2628,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+      <c r="A7" s="24">
         <v>45052</v>
       </c>
       <c r="B7" s="19">
@@ -2651,7 +2645,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="23">
         <v>45053</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2668,7 +2662,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+      <c r="A9" s="24">
         <v>45054</v>
       </c>
       <c r="B9" s="19">
@@ -2685,7 +2679,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="24">
         <v>45055</v>
       </c>
       <c r="B10" s="19">
@@ -2702,7 +2696,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="A11" s="24">
         <v>45056</v>
       </c>
       <c r="B11" s="19">
@@ -2719,7 +2713,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+      <c r="A12" s="24">
         <v>45057</v>
       </c>
       <c r="B12" s="19">
@@ -2736,7 +2730,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
+      <c r="A13" s="24">
         <v>45058</v>
       </c>
       <c r="B13" s="19">
@@ -2753,7 +2747,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+      <c r="A14" s="24">
         <v>45059</v>
       </c>
       <c r="B14" s="19">
@@ -2770,7 +2764,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
+      <c r="A15" s="24">
         <v>45060</v>
       </c>
       <c r="B15" s="19">
@@ -2787,7 +2781,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
+      <c r="A16" s="24">
         <v>45061</v>
       </c>
       <c r="B16" s="19">
@@ -2804,7 +2798,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
+      <c r="A17" s="24">
         <v>45062</v>
       </c>
       <c r="B17" s="19">
@@ -2821,7 +2815,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+      <c r="A18" s="24">
         <v>45063</v>
       </c>
       <c r="B18" s="19">
@@ -2838,7 +2832,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
+      <c r="A19" s="24">
         <v>45064</v>
       </c>
       <c r="B19" s="19">
@@ -2855,7 +2849,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
+      <c r="A20" s="24">
         <v>45065</v>
       </c>
       <c r="B20" s="19">
@@ -2872,7 +2866,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="26">
+      <c r="A21" s="24">
         <v>45066</v>
       </c>
       <c r="B21" s="19">
@@ -2889,7 +2883,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
+      <c r="A22" s="24">
         <v>45067</v>
       </c>
       <c r="B22" s="19">
@@ -2906,7 +2900,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
+      <c r="A23" s="23">
         <v>45068</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -2923,7 +2917,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="26">
+      <c r="A24" s="24">
         <v>45069</v>
       </c>
       <c r="B24" s="19">
@@ -2940,7 +2934,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="26">
+      <c r="A25" s="24">
         <v>45070</v>
       </c>
       <c r="B25" s="19">
@@ -2957,7 +2951,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
+      <c r="A26" s="24">
         <v>45071</v>
       </c>
       <c r="B26" s="19">
@@ -2974,7 +2968,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="26">
+      <c r="A27" s="24">
         <v>45072</v>
       </c>
       <c r="B27" s="19">
@@ -2991,7 +2985,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="26">
+      <c r="A28" s="24">
         <v>45073</v>
       </c>
       <c r="B28" s="19">
@@ -3008,7 +3002,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="25">
+      <c r="A29" s="23">
         <v>45074</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -3025,7 +3019,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="26">
+      <c r="A30" s="24">
         <v>45075</v>
       </c>
       <c r="B30" s="19">
@@ -3042,7 +3036,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="26">
+      <c r="A31" s="24">
         <v>45076</v>
       </c>
       <c r="B31" s="19">
@@ -3059,16 +3053,24 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="26">
+      <c r="A32" s="24">
         <v>45077</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
+      <c r="B32" s="19">
+        <v>2</v>
+      </c>
+      <c r="C32" s="20">
+        <v>14</v>
+      </c>
+      <c r="D32" s="19">
+        <v>54</v>
+      </c>
+      <c r="E32" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="6">
@@ -3077,7 +3079,7 @@
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -3102,27 +3104,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B33)</f>
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33)</f>
         <v>235</v>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA050F2-9E80-47D8-99B8-EF78073CC4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B4FFFF-039A-44A5-BB6D-A3229931E018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="Março" sheetId="4" r:id="rId3"/>
     <sheet name="Abril" sheetId="6" r:id="rId4"/>
     <sheet name="Maio" sheetId="7" r:id="rId5"/>
-    <sheet name="RELATORIO" sheetId="5" r:id="rId6"/>
+    <sheet name="Junho" sheetId="8" r:id="rId6"/>
+    <sheet name="RELATORIO" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="11">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -71,7 +72,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +106,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -173,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,6 +266,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2516,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AFC8DB-A247-4E14-982E-55A4D73D3AFC}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3094,6 +3110,345 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5D4608-CAC1-4468-BD08-2235ED4238F8}">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
+        <v>45078</v>
+      </c>
+      <c r="B2" s="19">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20">
+        <v>7</v>
+      </c>
+      <c r="D2" s="19">
+        <v>54</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>45079</v>
+      </c>
+      <c r="B3" s="19">
+        <v>3</v>
+      </c>
+      <c r="C3" s="20">
+        <v>21</v>
+      </c>
+      <c r="D3" s="19">
+        <v>54</v>
+      </c>
+      <c r="E3" s="19">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
+        <v>45080</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
+        <v>45081</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="33">
+        <v>45082</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
+        <v>45083</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
+        <v>45084</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
+        <v>45085</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
+        <v>45086</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
+        <v>45087</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="33">
+        <v>45088</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <v>45089</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
+        <v>45090</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
+        <v>45091</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
+        <v>45092</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
+        <v>45093</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
+        <v>45094</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
+        <v>45095</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="33">
+        <v>45096</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="33">
+        <v>45097</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="33">
+        <v>45098</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="33">
+        <v>45099</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="33">
+        <v>45100</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="33">
+        <v>45101</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="33">
+        <v>45102</v>
+      </c>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="33">
+        <v>45103</v>
+      </c>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="33">
+        <v>45104</v>
+      </c>
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="33">
+        <v>45105</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="33">
+        <v>45106</v>
+      </c>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="33">
+        <v>45107</v>
+      </c>
+      <c r="B31" s="34"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="6">
+        <f>SUM(B2:B31)</f>
+        <v>4</v>
+      </c>
+      <c r="C32" s="7">
+        <f>SUM(C2:C31)</f>
+        <v>28</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B4FFFF-039A-44A5-BB6D-A3229931E018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14A9AB8-4657-4353-997B-C5B695609118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="11">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -247,6 +247,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -266,15 +275,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1397,10 +1397,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1978,10 +1978,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2256,13 +2256,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2309,10 +2309,10 @@
       <c r="C21" s="20">
         <v>21</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="31"/>
+      <c r="E21" s="34"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2553,10 +2553,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
@@ -3114,12 +3114,12 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="25" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
@@ -3134,10 +3134,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
@@ -3174,256 +3174,280 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+      <c r="A4" s="24">
         <v>45080</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="19">
+        <v>2</v>
+      </c>
+      <c r="C4" s="20">
+        <v>14</v>
+      </c>
+      <c r="D4" s="19">
+        <v>54</v>
+      </c>
+      <c r="E4" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
+      <c r="A5" s="23">
         <v>45081</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="24">
         <v>45082</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="B6" s="19">
+        <v>2</v>
+      </c>
+      <c r="C6" s="20">
+        <v>14</v>
+      </c>
+      <c r="D6" s="19">
+        <v>54</v>
+      </c>
+      <c r="E6" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+      <c r="A7" s="26">
         <v>45083</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
+      <c r="A8" s="26">
         <v>45084</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+      <c r="A9" s="26">
         <v>45085</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="26">
         <v>45086</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
+      <c r="A11" s="26">
         <v>45087</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
+      <c r="A12" s="26">
         <v>45088</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
+      <c r="A13" s="26">
         <v>45089</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
+      <c r="A14" s="26">
         <v>45090</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
+      <c r="A15" s="26">
         <v>45091</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
+      <c r="A16" s="26">
         <v>45092</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
+      <c r="A17" s="26">
         <v>45093</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+      <c r="A18" s="26">
         <v>45094</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
+      <c r="A19" s="26">
         <v>45095</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
+      <c r="A20" s="26">
         <v>45096</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
+      <c r="A21" s="26">
         <v>45097</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="33">
+      <c r="A22" s="26">
         <v>45098</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
+      <c r="A23" s="26">
         <v>45099</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="33">
+      <c r="A24" s="26">
         <v>45100</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
+      <c r="A25" s="26">
         <v>45101</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="33">
+      <c r="A26" s="26">
         <v>45102</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="33">
+      <c r="A27" s="26">
         <v>45103</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="33">
+      <c r="A28" s="26">
         <v>45104</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="33">
+      <c r="A29" s="26">
         <v>45105</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="33">
+      <c r="A30" s="26">
         <v>45106</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="33">
+      <c r="A31" s="26">
         <v>45107</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
@@ -3431,11 +3455,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -3445,6 +3469,7 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3459,27 +3484,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B33)</f>
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33)</f>
         <v>235</v>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14A9AB8-4657-4353-997B-C5B695609118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CF0B42-1259-4F50-B0C0-C523E9EBFEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3114,7 +3114,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3225,13 +3225,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+      <c r="A7" s="24">
         <v>45083</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="B7" s="19">
+        <v>2</v>
+      </c>
+      <c r="C7" s="20">
+        <v>14</v>
+      </c>
+      <c r="D7" s="19">
+        <v>54</v>
+      </c>
+      <c r="E7" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
@@ -3455,11 +3463,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CF0B42-1259-4F50-B0C0-C523E9EBFEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6CB2F2-6F7B-4501-A467-C38D1A38D76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -295,9 +295,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -335,9 +335,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,26 +370,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -422,26 +405,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3113,8 +3079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5D4608-CAC1-4468-BD08-2235ED4238F8}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3242,13 +3208,21 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="24">
         <v>45084</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="B8" s="19">
+        <v>2</v>
+      </c>
+      <c r="C8" s="20">
+        <v>14</v>
+      </c>
+      <c r="D8" s="19">
+        <v>54</v>
+      </c>
+      <c r="E8" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
@@ -3463,11 +3437,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6CB2F2-6F7B-4501-A467-C38D1A38D76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F25844-27EA-4F2D-BA9C-12DA9FBB105C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="11">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -3079,8 +3079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5D4608-CAC1-4468-BD08-2235ED4238F8}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3225,13 +3225,21 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+      <c r="A9" s="24">
         <v>45085</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="B9" s="19">
+        <v>1</v>
+      </c>
+      <c r="C9" s="20">
+        <v>7</v>
+      </c>
+      <c r="D9" s="19">
+        <v>54</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
@@ -3437,11 +3445,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F25844-27EA-4F2D-BA9C-12DA9FBB105C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FEB6B6-6116-433D-86F6-C6C62665950D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="11">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -3080,7 +3080,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3242,13 +3242,21 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="24">
         <v>45086</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="B10" s="19">
+        <v>1</v>
+      </c>
+      <c r="C10" s="20">
+        <v>7</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
@@ -3445,11 +3453,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FEB6B6-6116-433D-86F6-C6C62665950D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8ADE51-02BE-482B-A268-FA2A70C58090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="11">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -3080,7 +3080,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3259,22 +3259,38 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="A11" s="24">
         <v>45087</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="B11" s="19">
+        <v>2</v>
+      </c>
+      <c r="C11" s="20">
+        <v>14</v>
+      </c>
+      <c r="D11" s="19">
+        <v>54</v>
+      </c>
+      <c r="E11" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+      <c r="A12" s="23">
         <v>45088</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="B12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
@@ -3453,11 +3469,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8ADE51-02BE-482B-A268-FA2A70C58090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679BEBC5-E92A-4868-95E2-F54010F42271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="11">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -3080,7 +3080,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3293,22 +3293,38 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
+      <c r="A13" s="24">
         <v>45089</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="B13" s="19">
+        <v>2</v>
+      </c>
+      <c r="C13" s="20">
+        <v>14</v>
+      </c>
+      <c r="D13" s="19">
+        <v>54</v>
+      </c>
+      <c r="E13" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+      <c r="A14" s="24">
         <v>45090</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+      <c r="B14" s="19">
+        <v>1</v>
+      </c>
+      <c r="C14" s="20">
+        <v>7</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
@@ -3469,11 +3485,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679BEBC5-E92A-4868-95E2-F54010F42271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80E90C0-8B2F-47DF-A102-4EF797F0AC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="11">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -3080,7 +3080,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A14"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3327,49 +3327,89 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
+      <c r="A15" s="24">
         <v>45091</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="B15" s="19">
+        <v>2</v>
+      </c>
+      <c r="C15" s="20">
+        <v>14</v>
+      </c>
+      <c r="D15" s="19">
+        <v>54</v>
+      </c>
+      <c r="E15" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
+      <c r="A16" s="24">
         <v>45092</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="B16" s="19">
+        <v>2</v>
+      </c>
+      <c r="C16" s="20">
+        <v>14</v>
+      </c>
+      <c r="D16" s="19">
+        <v>54</v>
+      </c>
+      <c r="E16" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
+      <c r="A17" s="24">
         <v>45093</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
+      <c r="B17" s="19">
+        <v>2</v>
+      </c>
+      <c r="C17" s="20">
+        <v>14</v>
+      </c>
+      <c r="D17" s="19">
+        <v>54</v>
+      </c>
+      <c r="E17" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
+      <c r="A18" s="24">
         <v>45094</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="B18" s="19">
+        <v>2</v>
+      </c>
+      <c r="C18" s="20">
+        <v>14</v>
+      </c>
+      <c r="D18" s="19">
+        <v>54</v>
+      </c>
+      <c r="E18" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
+      <c r="A19" s="23">
         <v>45095</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+      <c r="B19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
@@ -3485,11 +3525,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80E90C0-8B2F-47DF-A102-4EF797F0AC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50562F3D-A7E8-4A9B-97CF-2E2C7B0D0FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,6 +275,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3080,7 +3083,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3412,22 +3415,38 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
+      <c r="A20" s="36">
         <v>45096</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+      <c r="B20" s="19">
+        <v>2</v>
+      </c>
+      <c r="C20" s="20">
+        <v>14</v>
+      </c>
+      <c r="D20" s="19">
+        <v>54</v>
+      </c>
+      <c r="E20" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="26">
+      <c r="A21" s="36">
         <v>45097</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="B21" s="19">
+        <v>2</v>
+      </c>
+      <c r="C21" s="20">
+        <v>14</v>
+      </c>
+      <c r="D21" s="19">
+        <v>54</v>
+      </c>
+      <c r="E21" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
@@ -3525,11 +3544,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50562F3D-A7E8-4A9B-97CF-2E2C7B0D0FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -16,7 +15,7 @@
     <sheet name="Junho" sheetId="8" r:id="rId6"/>
     <sheet name="RELATORIO" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -256,6 +255,9 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -277,9 +279,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -298,9 +297,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -338,9 +337,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,7 +374,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -410,7 +409,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -583,21 +582,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -608,7 +607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44927</v>
       </c>
@@ -619,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44928</v>
       </c>
@@ -630,7 +629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44929</v>
       </c>
@@ -641,7 +640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44930</v>
       </c>
@@ -652,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>44931</v>
       </c>
@@ -663,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44932</v>
       </c>
@@ -674,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44933</v>
       </c>
@@ -685,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44934</v>
       </c>
@@ -696,7 +695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44935</v>
       </c>
@@ -707,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44936</v>
       </c>
@@ -718,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44937</v>
       </c>
@@ -729,7 +728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44938</v>
       </c>
@@ -740,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44939</v>
       </c>
@@ -751,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44940</v>
       </c>
@@ -762,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44941</v>
       </c>
@@ -773,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44942</v>
       </c>
@@ -784,7 +783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44943</v>
       </c>
@@ -795,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44944</v>
       </c>
@@ -806,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44945</v>
       </c>
@@ -817,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44946</v>
       </c>
@@ -828,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44947</v>
       </c>
@@ -839,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44948</v>
       </c>
@@ -850,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44949</v>
       </c>
@@ -861,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44950</v>
       </c>
@@ -872,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44951</v>
       </c>
@@ -883,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>44952</v>
       </c>
@@ -894,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>44953</v>
       </c>
@@ -905,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44954</v>
       </c>
@@ -916,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>44955</v>
       </c>
@@ -927,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>44956</v>
       </c>
@@ -938,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>44957</v>
       </c>
@@ -949,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -962,19 +961,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
     </row>
   </sheetData>
@@ -983,21 +982,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1008,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44958</v>
       </c>
@@ -1019,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44959</v>
       </c>
@@ -1030,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44960</v>
       </c>
@@ -1041,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44961</v>
       </c>
@@ -1052,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>44962</v>
       </c>
@@ -1063,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44963</v>
       </c>
@@ -1074,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44964</v>
       </c>
@@ -1085,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44965</v>
       </c>
@@ -1096,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44966</v>
       </c>
@@ -1107,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44967</v>
       </c>
@@ -1118,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44968</v>
       </c>
@@ -1129,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44969</v>
       </c>
@@ -1140,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44970</v>
       </c>
@@ -1151,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44971</v>
       </c>
@@ -1162,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44972</v>
       </c>
@@ -1173,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44973</v>
       </c>
@@ -1184,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44974</v>
       </c>
@@ -1195,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44975</v>
       </c>
@@ -1206,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44976</v>
       </c>
@@ -1217,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44977</v>
       </c>
@@ -1228,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44978</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44979</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44980</v>
       </c>
@@ -1261,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44981</v>
       </c>
@@ -1272,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44982</v>
       </c>
@@ -1283,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>44983</v>
       </c>
@@ -1294,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>44984</v>
       </c>
@@ -1305,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44985</v>
       </c>
@@ -1316,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -1329,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1341,22 +1340,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1366,12 +1365,12 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44986</v>
       </c>
@@ -1388,7 +1387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44987</v>
       </c>
@@ -1405,7 +1404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44988</v>
       </c>
@@ -1422,7 +1421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44989</v>
       </c>
@@ -1439,7 +1438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>44990</v>
       </c>
@@ -1456,7 +1455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44991</v>
       </c>
@@ -1473,7 +1472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44992</v>
       </c>
@@ -1490,7 +1489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44993</v>
       </c>
@@ -1507,7 +1506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44994</v>
       </c>
@@ -1524,7 +1523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44995</v>
       </c>
@@ -1541,7 +1540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44996</v>
       </c>
@@ -1558,7 +1557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44997</v>
       </c>
@@ -1575,7 +1574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44998</v>
       </c>
@@ -1592,7 +1591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44999</v>
       </c>
@@ -1609,7 +1608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>45000</v>
       </c>
@@ -1626,7 +1625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>45001</v>
       </c>
@@ -1643,7 +1642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>45002</v>
       </c>
@@ -1660,7 +1659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>45003</v>
       </c>
@@ -1677,7 +1676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>45004</v>
       </c>
@@ -1694,7 +1693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>45005</v>
       </c>
@@ -1711,7 +1710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>45006</v>
       </c>
@@ -1728,7 +1727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>45007</v>
       </c>
@@ -1745,7 +1744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>45008</v>
       </c>
@@ -1762,7 +1761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>45009</v>
       </c>
@@ -1779,7 +1778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>45010</v>
       </c>
@@ -1796,7 +1795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>45011</v>
       </c>
@@ -1813,7 +1812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>45012</v>
       </c>
@@ -1830,7 +1829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>45013</v>
       </c>
@@ -1847,7 +1846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>45014</v>
       </c>
@@ -1864,7 +1863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>45015</v>
       </c>
@@ -1881,7 +1880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>45016</v>
       </c>
@@ -1898,7 +1897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -1922,22 +1921,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E31" sqref="B31:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1947,12 +1946,12 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>45017</v>
       </c>
@@ -1969,7 +1968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>45018</v>
       </c>
@@ -1986,7 +1985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>45019</v>
       </c>
@@ -2003,7 +2002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>45020</v>
       </c>
@@ -2020,7 +2019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>45021</v>
       </c>
@@ -2037,7 +2036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>45022</v>
       </c>
@@ -2054,7 +2053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>45023</v>
       </c>
@@ -2071,7 +2070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>45024</v>
       </c>
@@ -2088,7 +2087,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>45025</v>
       </c>
@@ -2105,7 +2104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>45026</v>
       </c>
@@ -2122,7 +2121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>45027</v>
       </c>
@@ -2139,7 +2138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>45028</v>
       </c>
@@ -2156,7 +2155,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>45029</v>
       </c>
@@ -2173,7 +2172,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>45030</v>
       </c>
@@ -2190,7 +2189,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>45031</v>
       </c>
@@ -2207,7 +2206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>45032</v>
       </c>
@@ -2224,17 +2223,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="17"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>45033</v>
       </c>
@@ -2251,7 +2250,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>45034</v>
       </c>
@@ -2268,7 +2267,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>45035</v>
       </c>
@@ -2278,13 +2277,13 @@
       <c r="C21" s="20">
         <v>21</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="34"/>
+      <c r="E21" s="35"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>45036</v>
       </c>
@@ -2301,7 +2300,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>45037</v>
       </c>
@@ -2318,7 +2317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>45038</v>
       </c>
@@ -2335,7 +2334,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>45039</v>
       </c>
@@ -2352,7 +2351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
         <v>45040</v>
       </c>
@@ -2369,7 +2368,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="21">
         <v>45041</v>
       </c>
@@ -2386,7 +2385,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="21">
         <v>45042</v>
       </c>
@@ -2403,7 +2402,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="21">
         <v>45043</v>
       </c>
@@ -2420,7 +2419,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="21">
         <v>45044</v>
       </c>
@@ -2437,7 +2436,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <v>45045</v>
       </c>
@@ -2454,7 +2453,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>45046</v>
       </c>
@@ -2471,7 +2470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -2498,21 +2497,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AFC8DB-A247-4E14-982E-55A4D73D3AFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
@@ -2522,12 +2521,12 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="23">
         <v>45047</v>
       </c>
@@ -2544,7 +2543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="24">
         <v>45048</v>
       </c>
@@ -2561,7 +2560,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="24">
         <v>45049</v>
       </c>
@@ -2578,7 +2577,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
         <v>45050</v>
       </c>
@@ -2595,7 +2594,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="24">
         <v>45051</v>
       </c>
@@ -2612,7 +2611,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="24">
         <v>45052</v>
       </c>
@@ -2629,7 +2628,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>45053</v>
       </c>
@@ -2646,7 +2645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="24">
         <v>45054</v>
       </c>
@@ -2663,7 +2662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
         <v>45055</v>
       </c>
@@ -2680,7 +2679,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>45056</v>
       </c>
@@ -2697,7 +2696,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>45057</v>
       </c>
@@ -2714,7 +2713,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>45058</v>
       </c>
@@ -2731,7 +2730,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>45059</v>
       </c>
@@ -2748,7 +2747,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>45060</v>
       </c>
@@ -2765,7 +2764,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>45061</v>
       </c>
@@ -2782,7 +2781,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>45062</v>
       </c>
@@ -2799,7 +2798,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>45063</v>
       </c>
@@ -2816,7 +2815,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>45064</v>
       </c>
@@ -2833,7 +2832,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>45065</v>
       </c>
@@ -2850,7 +2849,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>45066</v>
       </c>
@@ -2867,7 +2866,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>45067</v>
       </c>
@@ -2884,7 +2883,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>45068</v>
       </c>
@@ -2901,7 +2900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>45069</v>
       </c>
@@ -2918,7 +2917,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>45070</v>
       </c>
@@ -2935,7 +2934,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>45071</v>
       </c>
@@ -2952,7 +2951,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>45072</v>
       </c>
@@ -2969,7 +2968,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>45073</v>
       </c>
@@ -2986,7 +2985,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <v>45074</v>
       </c>
@@ -3003,7 +3002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>45075</v>
       </c>
@@ -3020,7 +3019,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>45076</v>
       </c>
@@ -3037,7 +3036,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>45077</v>
       </c>
@@ -3054,7 +3053,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>0</v>
       </c>
@@ -3079,21 +3078,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5D4608-CAC1-4468-BD08-2235ED4238F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
@@ -3103,12 +3102,12 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24">
         <v>45078</v>
       </c>
@@ -3125,7 +3124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="24">
         <v>45079</v>
       </c>
@@ -3142,7 +3141,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="24">
         <v>45080</v>
       </c>
@@ -3159,7 +3158,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <v>45081</v>
       </c>
@@ -3176,7 +3175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="24">
         <v>45082</v>
       </c>
@@ -3193,7 +3192,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="24">
         <v>45083</v>
       </c>
@@ -3210,7 +3209,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="24">
         <v>45084</v>
       </c>
@@ -3227,7 +3226,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="24">
         <v>45085</v>
       </c>
@@ -3244,7 +3243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
         <v>45086</v>
       </c>
@@ -3261,7 +3260,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>45087</v>
       </c>
@@ -3278,7 +3277,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>45088</v>
       </c>
@@ -3295,7 +3294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>45089</v>
       </c>
@@ -3312,7 +3311,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>45090</v>
       </c>
@@ -3329,7 +3328,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>45091</v>
       </c>
@@ -3346,7 +3345,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>45092</v>
       </c>
@@ -3363,7 +3362,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>45093</v>
       </c>
@@ -3380,7 +3379,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>45094</v>
       </c>
@@ -3397,7 +3396,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>45095</v>
       </c>
@@ -3414,8 +3413,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="36">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="29">
         <v>45096</v>
       </c>
       <c r="B20" s="19">
@@ -3431,8 +3430,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="36">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="29">
         <v>45097</v>
       </c>
       <c r="B21" s="19">
@@ -3448,16 +3447,24 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="29">
         <v>45098</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="19">
+        <v>2</v>
+      </c>
+      <c r="C22" s="20">
+        <v>14</v>
+      </c>
+      <c r="D22" s="19">
+        <v>54</v>
+      </c>
+      <c r="E22" s="19">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="26">
         <v>45099</v>
       </c>
@@ -3466,7 +3473,7 @@
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="26">
         <v>45100</v>
       </c>
@@ -3475,7 +3482,7 @@
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="26">
         <v>45101</v>
       </c>
@@ -3484,7 +3491,7 @@
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="26">
         <v>45102</v>
       </c>
@@ -3493,7 +3500,7 @@
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="26">
         <v>45103</v>
       </c>
@@ -3502,7 +3509,7 @@
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="26">
         <v>45104</v>
       </c>
@@ -3511,7 +3518,7 @@
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="26">
         <v>45105</v>
       </c>
@@ -3520,7 +3527,7 @@
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="26">
         <v>45106</v>
       </c>
@@ -3529,7 +3536,7 @@
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="26">
         <v>45107</v>
       </c>
@@ -3538,17 +3545,17 @@
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -3563,37 +3570,37 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B33)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33)</f>
         <v>235</v>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9D4FC6-52D7-4E99-986B-073884814C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -15,7 +16,7 @@
     <sheet name="Junho" sheetId="8" r:id="rId6"/>
     <sheet name="RELATORIO" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -297,9 +298,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -337,9 +338,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,7 +375,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,7 +410,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -582,21 +583,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -607,7 +608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44927</v>
       </c>
@@ -618,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>44928</v>
       </c>
@@ -629,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>44929</v>
       </c>
@@ -640,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44930</v>
       </c>
@@ -651,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>44931</v>
       </c>
@@ -662,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>44932</v>
       </c>
@@ -673,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44933</v>
       </c>
@@ -684,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>44934</v>
       </c>
@@ -695,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44935</v>
       </c>
@@ -706,7 +707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44936</v>
       </c>
@@ -717,7 +718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44937</v>
       </c>
@@ -728,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>44938</v>
       </c>
@@ -739,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>44939</v>
       </c>
@@ -750,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44940</v>
       </c>
@@ -761,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>44941</v>
       </c>
@@ -772,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>44942</v>
       </c>
@@ -783,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>44943</v>
       </c>
@@ -794,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>44944</v>
       </c>
@@ -805,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>44945</v>
       </c>
@@ -816,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>44946</v>
       </c>
@@ -827,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>44947</v>
       </c>
@@ -838,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>44948</v>
       </c>
@@ -849,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>44949</v>
       </c>
@@ -860,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>44950</v>
       </c>
@@ -871,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>44951</v>
       </c>
@@ -882,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>44952</v>
       </c>
@@ -893,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>44953</v>
       </c>
@@ -904,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>44954</v>
       </c>
@@ -915,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>44955</v>
       </c>
@@ -926,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>44956</v>
       </c>
@@ -937,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>44957</v>
       </c>
@@ -948,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -961,19 +962,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
     </row>
   </sheetData>
@@ -982,21 +983,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1007,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44958</v>
       </c>
@@ -1018,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>44959</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>44960</v>
       </c>
@@ -1040,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44961</v>
       </c>
@@ -1051,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>44962</v>
       </c>
@@ -1062,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>44963</v>
       </c>
@@ -1073,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44964</v>
       </c>
@@ -1084,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>44965</v>
       </c>
@@ -1095,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44966</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44967</v>
       </c>
@@ -1117,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44968</v>
       </c>
@@ -1128,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>44969</v>
       </c>
@@ -1139,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>44970</v>
       </c>
@@ -1150,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44971</v>
       </c>
@@ -1161,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>44972</v>
       </c>
@@ -1172,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>44973</v>
       </c>
@@ -1183,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>44974</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>44975</v>
       </c>
@@ -1205,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>44976</v>
       </c>
@@ -1216,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>44977</v>
       </c>
@@ -1227,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>44978</v>
       </c>
@@ -1238,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>44979</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>44980</v>
       </c>
@@ -1260,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>44981</v>
       </c>
@@ -1271,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>44982</v>
       </c>
@@ -1282,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>44983</v>
       </c>
@@ -1293,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>44984</v>
       </c>
@@ -1304,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>44985</v>
       </c>
@@ -1315,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -1328,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1340,22 +1341,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1370,7 +1371,7 @@
       </c>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44986</v>
       </c>
@@ -1387,7 +1388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>44987</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>44988</v>
       </c>
@@ -1421,7 +1422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44989</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>44990</v>
       </c>
@@ -1455,7 +1456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>44991</v>
       </c>
@@ -1472,7 +1473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44992</v>
       </c>
@@ -1489,7 +1490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>44993</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44994</v>
       </c>
@@ -1523,7 +1524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44995</v>
       </c>
@@ -1540,7 +1541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44996</v>
       </c>
@@ -1557,7 +1558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>44997</v>
       </c>
@@ -1574,7 +1575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>44998</v>
       </c>
@@ -1591,7 +1592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44999</v>
       </c>
@@ -1608,7 +1609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>45000</v>
       </c>
@@ -1625,7 +1626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>45001</v>
       </c>
@@ -1642,7 +1643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>45002</v>
       </c>
@@ -1659,7 +1660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>45003</v>
       </c>
@@ -1676,7 +1677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>45004</v>
       </c>
@@ -1693,7 +1694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>45005</v>
       </c>
@@ -1710,7 +1711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>45006</v>
       </c>
@@ -1727,7 +1728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>45007</v>
       </c>
@@ -1744,7 +1745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>45008</v>
       </c>
@@ -1761,7 +1762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>45009</v>
       </c>
@@ -1778,7 +1779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>45010</v>
       </c>
@@ -1795,7 +1796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>45011</v>
       </c>
@@ -1812,7 +1813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>45012</v>
       </c>
@@ -1829,7 +1830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>45013</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>45014</v>
       </c>
@@ -1863,7 +1864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>45015</v>
       </c>
@@ -1880,7 +1881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>45016</v>
       </c>
@@ -1897,7 +1898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -1921,22 +1922,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E31" sqref="B31:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1951,7 +1952,7 @@
       </c>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>45017</v>
       </c>
@@ -1968,7 +1969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>45018</v>
       </c>
@@ -1985,7 +1986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>45019</v>
       </c>
@@ -2002,7 +2003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>45020</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>45021</v>
       </c>
@@ -2036,7 +2037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>45022</v>
       </c>
@@ -2053,7 +2054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>45023</v>
       </c>
@@ -2070,7 +2071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>45024</v>
       </c>
@@ -2087,7 +2088,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>45025</v>
       </c>
@@ -2104,7 +2105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>45026</v>
       </c>
@@ -2121,7 +2122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>45027</v>
       </c>
@@ -2138,7 +2139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>45028</v>
       </c>
@@ -2155,7 +2156,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>45029</v>
       </c>
@@ -2172,7 +2173,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>45030</v>
       </c>
@@ -2189,7 +2190,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>45031</v>
       </c>
@@ -2206,7 +2207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>45032</v>
       </c>
@@ -2223,7 +2224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>9</v>
       </c>
@@ -2233,7 +2234,7 @@
       <c r="E18" s="33"/>
       <c r="F18" s="17"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>45033</v>
       </c>
@@ -2250,7 +2251,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>45034</v>
       </c>
@@ -2267,7 +2268,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>45035</v>
       </c>
@@ -2283,7 +2284,7 @@
       <c r="E21" s="35"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>45036</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>45037</v>
       </c>
@@ -2317,7 +2318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>45038</v>
       </c>
@@ -2334,7 +2335,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>45039</v>
       </c>
@@ -2351,7 +2352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>45040</v>
       </c>
@@ -2368,7 +2369,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>45041</v>
       </c>
@@ -2385,7 +2386,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>45042</v>
       </c>
@@ -2402,7 +2403,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>45043</v>
       </c>
@@ -2419,7 +2420,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>45044</v>
       </c>
@@ -2436,7 +2437,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>45045</v>
       </c>
@@ -2453,7 +2454,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>45046</v>
       </c>
@@ -2470,7 +2471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -2497,21 +2498,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>45047</v>
       </c>
@@ -2543,7 +2544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>45048</v>
       </c>
@@ -2560,7 +2561,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>45049</v>
       </c>
@@ -2577,7 +2578,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>45050</v>
       </c>
@@ -2594,7 +2595,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>45051</v>
       </c>
@@ -2611,7 +2612,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>45052</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>45053</v>
       </c>
@@ -2645,7 +2646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>45054</v>
       </c>
@@ -2662,7 +2663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>45055</v>
       </c>
@@ -2679,7 +2680,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>45056</v>
       </c>
@@ -2696,7 +2697,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>45057</v>
       </c>
@@ -2713,7 +2714,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>45058</v>
       </c>
@@ -2730,7 +2731,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>45059</v>
       </c>
@@ -2747,7 +2748,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>45060</v>
       </c>
@@ -2764,7 +2765,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>45061</v>
       </c>
@@ -2781,7 +2782,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>45062</v>
       </c>
@@ -2798,7 +2799,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>45063</v>
       </c>
@@ -2815,7 +2816,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>45064</v>
       </c>
@@ -2832,7 +2833,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>45065</v>
       </c>
@@ -2849,7 +2850,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>45066</v>
       </c>
@@ -2866,7 +2867,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>45067</v>
       </c>
@@ -2883,7 +2884,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>45068</v>
       </c>
@@ -2900,7 +2901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>45069</v>
       </c>
@@ -2917,7 +2918,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>45070</v>
       </c>
@@ -2934,7 +2935,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>45071</v>
       </c>
@@ -2951,7 +2952,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>45072</v>
       </c>
@@ -2968,7 +2969,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>45073</v>
       </c>
@@ -2985,7 +2986,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>45074</v>
       </c>
@@ -3002,7 +3003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>45075</v>
       </c>
@@ -3019,7 +3020,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>45076</v>
       </c>
@@ -3036,7 +3037,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>45077</v>
       </c>
@@ -3053,7 +3054,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>0</v>
       </c>
@@ -3078,21 +3079,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
@@ -3107,7 +3108,7 @@
       </c>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>45078</v>
       </c>
@@ -3124,7 +3125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>45079</v>
       </c>
@@ -3141,7 +3142,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>45080</v>
       </c>
@@ -3158,7 +3159,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>45081</v>
       </c>
@@ -3175,7 +3176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>45082</v>
       </c>
@@ -3192,7 +3193,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>45083</v>
       </c>
@@ -3209,7 +3210,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>45084</v>
       </c>
@@ -3226,7 +3227,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>45085</v>
       </c>
@@ -3243,7 +3244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>45086</v>
       </c>
@@ -3260,7 +3261,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>45087</v>
       </c>
@@ -3277,7 +3278,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>45088</v>
       </c>
@@ -3294,7 +3295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>45089</v>
       </c>
@@ -3311,7 +3312,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>45090</v>
       </c>
@@ -3328,7 +3329,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>45091</v>
       </c>
@@ -3345,7 +3346,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>45092</v>
       </c>
@@ -3362,7 +3363,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>45093</v>
       </c>
@@ -3379,7 +3380,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>45094</v>
       </c>
@@ -3396,7 +3397,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>45095</v>
       </c>
@@ -3413,7 +3414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>45096</v>
       </c>
@@ -3430,7 +3431,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>45097</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>45098</v>
       </c>
@@ -3464,16 +3465,24 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="26">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
         <v>45099</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="19">
+        <v>2</v>
+      </c>
+      <c r="C23" s="20">
+        <v>14</v>
+      </c>
+      <c r="D23" s="19">
+        <v>54</v>
+      </c>
+      <c r="E23" s="19">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>45100</v>
       </c>
@@ -3482,7 +3491,7 @@
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>45101</v>
       </c>
@@ -3491,7 +3500,7 @@
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>45102</v>
       </c>
@@ -3500,7 +3509,7 @@
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>45103</v>
       </c>
@@ -3509,7 +3518,7 @@
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>45104</v>
       </c>
@@ -3518,7 +3527,7 @@
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>45105</v>
       </c>
@@ -3527,7 +3536,7 @@
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>45106</v>
       </c>
@@ -3536,7 +3545,7 @@
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>45107</v>
       </c>
@@ -3545,17 +3554,17 @@
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -3570,23 +3579,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>6</v>
       </c>
@@ -3596,7 +3605,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>5</v>
       </c>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9D4FC6-52D7-4E99-986B-073884814C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBA5D8F-FE33-4551-BBC5-C70C34972448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3083,7 +3083,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3483,22 +3483,38 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="26">
+      <c r="A24" s="29">
         <v>45100</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="B24" s="19">
+        <v>2</v>
+      </c>
+      <c r="C24" s="20">
+        <v>14</v>
+      </c>
+      <c r="D24" s="19">
+        <v>54</v>
+      </c>
+      <c r="E24" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="26">
+      <c r="A25" s="29">
         <v>45101</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="B25" s="19">
+        <v>2</v>
+      </c>
+      <c r="C25" s="20">
+        <v>14</v>
+      </c>
+      <c r="D25" s="19">
+        <v>54</v>
+      </c>
+      <c r="E25" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -3560,11 +3576,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBA5D8F-FE33-4551-BBC5-C70C34972448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333C198D-CBB0-4E25-BADC-DE8E9BEDC1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="11">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -72,7 +72,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,12 +106,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -180,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,15 +241,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1366,10 +1351,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1947,10 +1932,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2225,13 +2210,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2278,10 +2263,10 @@
       <c r="C21" s="20">
         <v>21</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="35"/>
+      <c r="E21" s="32"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2522,10 +2507,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
@@ -3082,8 +3067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3103,10 +3088,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
@@ -3415,7 +3400,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="29">
+      <c r="A20" s="26">
         <v>45096</v>
       </c>
       <c r="B20" s="19">
@@ -3432,7 +3417,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="29">
+      <c r="A21" s="26">
         <v>45097</v>
       </c>
       <c r="B21" s="19">
@@ -3449,7 +3434,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="29">
+      <c r="A22" s="26">
         <v>45098</v>
       </c>
       <c r="B22" s="19">
@@ -3466,7 +3451,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="29">
+      <c r="A23" s="26">
         <v>45099</v>
       </c>
       <c r="B23" s="19">
@@ -3483,7 +3468,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="29">
+      <c r="A24" s="26">
         <v>45100</v>
       </c>
       <c r="B24" s="19">
@@ -3500,7 +3485,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="29">
+      <c r="A25" s="26">
         <v>45101</v>
       </c>
       <c r="B25" s="19">
@@ -3517,58 +3502,106 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="26">
+      <c r="A26" s="23">
         <v>45102</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="B26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>45103</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
+      <c r="B27" s="19">
+        <v>2</v>
+      </c>
+      <c r="C27" s="20">
+        <v>14</v>
+      </c>
+      <c r="D27" s="19">
+        <v>54</v>
+      </c>
+      <c r="E27" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>45104</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
+      <c r="B28" s="19">
+        <v>2</v>
+      </c>
+      <c r="C28" s="20">
+        <v>14</v>
+      </c>
+      <c r="D28" s="19">
+        <v>54</v>
+      </c>
+      <c r="E28" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>45105</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="B29" s="19">
+        <v>2</v>
+      </c>
+      <c r="C29" s="20">
+        <v>14</v>
+      </c>
+      <c r="D29" s="19">
+        <v>54</v>
+      </c>
+      <c r="E29" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>45106</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
+      <c r="B30" s="19">
+        <v>2</v>
+      </c>
+      <c r="C30" s="20">
+        <v>14</v>
+      </c>
+      <c r="D30" s="19">
+        <v>54</v>
+      </c>
+      <c r="E30" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>45107</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+      <c r="B31" s="19">
+        <v>2</v>
+      </c>
+      <c r="C31" s="20">
+        <v>14</v>
+      </c>
+      <c r="D31" s="19">
+        <v>54</v>
+      </c>
+      <c r="E31" s="19">
+        <v>54</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
@@ -3576,11 +3609,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>273</v>
+        <v>343</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -3605,27 +3638,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B33)</f>
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33)</f>
         <v>235</v>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333C198D-CBB0-4E25-BADC-DE8E9BEDC1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -14,14 +13,15 @@
     <sheet name="Abril" sheetId="6" r:id="rId4"/>
     <sheet name="Maio" sheetId="7" r:id="rId5"/>
     <sheet name="Junho" sheetId="8" r:id="rId6"/>
-    <sheet name="RELATORIO" sheetId="5" r:id="rId7"/>
+    <sheet name="Julho" sheetId="9" r:id="rId7"/>
+    <sheet name="RELATORIO" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="11">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -72,7 +72,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,6 +106,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,6 +253,9 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -263,6 +272,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -283,9 +307,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -323,9 +347,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,7 +384,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,7 +419,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -568,21 +592,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -593,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44927</v>
       </c>
@@ -604,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44928</v>
       </c>
@@ -615,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44929</v>
       </c>
@@ -626,7 +650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44930</v>
       </c>
@@ -637,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>44931</v>
       </c>
@@ -648,7 +672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44932</v>
       </c>
@@ -659,7 +683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44933</v>
       </c>
@@ -670,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44934</v>
       </c>
@@ -681,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44935</v>
       </c>
@@ -692,7 +716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44936</v>
       </c>
@@ -703,7 +727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44937</v>
       </c>
@@ -714,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44938</v>
       </c>
@@ -725,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44939</v>
       </c>
@@ -736,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44940</v>
       </c>
@@ -747,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44941</v>
       </c>
@@ -758,7 +782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44942</v>
       </c>
@@ -769,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44943</v>
       </c>
@@ -780,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44944</v>
       </c>
@@ -791,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44945</v>
       </c>
@@ -802,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44946</v>
       </c>
@@ -813,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44947</v>
       </c>
@@ -824,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44948</v>
       </c>
@@ -835,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44949</v>
       </c>
@@ -846,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44950</v>
       </c>
@@ -857,7 +881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44951</v>
       </c>
@@ -868,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>44952</v>
       </c>
@@ -879,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>44953</v>
       </c>
@@ -890,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44954</v>
       </c>
@@ -901,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>44955</v>
       </c>
@@ -912,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>44956</v>
       </c>
@@ -923,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>44957</v>
       </c>
@@ -934,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -947,19 +971,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
     </row>
   </sheetData>
@@ -968,21 +992,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -993,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44958</v>
       </c>
@@ -1004,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44959</v>
       </c>
@@ -1015,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44960</v>
       </c>
@@ -1026,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44961</v>
       </c>
@@ -1037,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>44962</v>
       </c>
@@ -1048,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44963</v>
       </c>
@@ -1059,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44964</v>
       </c>
@@ -1070,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44965</v>
       </c>
@@ -1081,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44966</v>
       </c>
@@ -1092,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44967</v>
       </c>
@@ -1103,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44968</v>
       </c>
@@ -1114,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44969</v>
       </c>
@@ -1125,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44970</v>
       </c>
@@ -1136,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44971</v>
       </c>
@@ -1147,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44972</v>
       </c>
@@ -1158,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44973</v>
       </c>
@@ -1169,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44974</v>
       </c>
@@ -1180,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44975</v>
       </c>
@@ -1191,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44976</v>
       </c>
@@ -1202,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44977</v>
       </c>
@@ -1213,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>44978</v>
       </c>
@@ -1224,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44979</v>
       </c>
@@ -1235,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>44980</v>
       </c>
@@ -1246,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>44981</v>
       </c>
@@ -1257,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>44982</v>
       </c>
@@ -1268,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>44983</v>
       </c>
@@ -1279,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>44984</v>
       </c>
@@ -1290,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>44985</v>
       </c>
@@ -1301,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1326,22 +1350,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1351,12 +1375,12 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>44986</v>
       </c>
@@ -1373,7 +1397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44987</v>
       </c>
@@ -1390,7 +1414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44988</v>
       </c>
@@ -1407,7 +1431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44989</v>
       </c>
@@ -1424,7 +1448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>44990</v>
       </c>
@@ -1441,7 +1465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44991</v>
       </c>
@@ -1458,7 +1482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44992</v>
       </c>
@@ -1475,7 +1499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44993</v>
       </c>
@@ -1492,7 +1516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44994</v>
       </c>
@@ -1509,7 +1533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44995</v>
       </c>
@@ -1526,7 +1550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44996</v>
       </c>
@@ -1543,7 +1567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44997</v>
       </c>
@@ -1560,7 +1584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44998</v>
       </c>
@@ -1577,7 +1601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44999</v>
       </c>
@@ -1594,7 +1618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>45000</v>
       </c>
@@ -1611,7 +1635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>45001</v>
       </c>
@@ -1628,7 +1652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>45002</v>
       </c>
@@ -1645,7 +1669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>45003</v>
       </c>
@@ -1662,7 +1686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>45004</v>
       </c>
@@ -1679,7 +1703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>45005</v>
       </c>
@@ -1696,7 +1720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>45006</v>
       </c>
@@ -1713,7 +1737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>45007</v>
       </c>
@@ -1730,7 +1754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>45008</v>
       </c>
@@ -1747,7 +1771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>45009</v>
       </c>
@@ -1764,7 +1788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>45010</v>
       </c>
@@ -1781,7 +1805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>45011</v>
       </c>
@@ -1798,7 +1822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>45012</v>
       </c>
@@ -1815,7 +1839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>45013</v>
       </c>
@@ -1832,7 +1856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>45014</v>
       </c>
@@ -1849,7 +1873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>45015</v>
       </c>
@@ -1866,7 +1890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>45016</v>
       </c>
@@ -1883,7 +1907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -1907,22 +1931,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E31" sqref="B31:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1932,12 +1956,12 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>45017</v>
       </c>
@@ -1954,7 +1978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>45018</v>
       </c>
@@ -1971,7 +1995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>45019</v>
       </c>
@@ -1988,7 +2012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>45020</v>
       </c>
@@ -2005,7 +2029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>45021</v>
       </c>
@@ -2022,7 +2046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>45022</v>
       </c>
@@ -2039,7 +2063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>45023</v>
       </c>
@@ -2056,7 +2080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>45024</v>
       </c>
@@ -2073,7 +2097,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>45025</v>
       </c>
@@ -2090,7 +2114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>45026</v>
       </c>
@@ -2107,7 +2131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>45027</v>
       </c>
@@ -2124,7 +2148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>45028</v>
       </c>
@@ -2141,7 +2165,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>45029</v>
       </c>
@@ -2158,7 +2182,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>45030</v>
       </c>
@@ -2175,7 +2199,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>45031</v>
       </c>
@@ -2192,7 +2216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>45032</v>
       </c>
@@ -2209,17 +2233,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="17"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>45033</v>
       </c>
@@ -2236,7 +2260,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>45034</v>
       </c>
@@ -2253,7 +2277,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>45035</v>
       </c>
@@ -2263,13 +2287,13 @@
       <c r="C21" s="20">
         <v>21</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="32"/>
+      <c r="E21" s="33"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>45036</v>
       </c>
@@ -2286,7 +2310,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>45037</v>
       </c>
@@ -2303,7 +2327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>45038</v>
       </c>
@@ -2320,7 +2344,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>45039</v>
       </c>
@@ -2337,7 +2361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
         <v>45040</v>
       </c>
@@ -2354,7 +2378,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="21">
         <v>45041</v>
       </c>
@@ -2371,7 +2395,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="21">
         <v>45042</v>
       </c>
@@ -2388,7 +2412,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="21">
         <v>45043</v>
       </c>
@@ -2405,7 +2429,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="21">
         <v>45044</v>
       </c>
@@ -2422,7 +2446,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <v>45045</v>
       </c>
@@ -2439,7 +2463,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>45046</v>
       </c>
@@ -2456,7 +2480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -2483,21 +2507,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
@@ -2507,12 +2531,12 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="23">
         <v>45047</v>
       </c>
@@ -2529,7 +2553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="24">
         <v>45048</v>
       </c>
@@ -2546,7 +2570,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="24">
         <v>45049</v>
       </c>
@@ -2563,7 +2587,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
         <v>45050</v>
       </c>
@@ -2580,7 +2604,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="24">
         <v>45051</v>
       </c>
@@ -2597,7 +2621,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="24">
         <v>45052</v>
       </c>
@@ -2614,7 +2638,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>45053</v>
       </c>
@@ -2631,7 +2655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="24">
         <v>45054</v>
       </c>
@@ -2648,7 +2672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
         <v>45055</v>
       </c>
@@ -2665,7 +2689,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>45056</v>
       </c>
@@ -2682,7 +2706,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>45057</v>
       </c>
@@ -2699,7 +2723,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>45058</v>
       </c>
@@ -2716,7 +2740,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>45059</v>
       </c>
@@ -2733,7 +2757,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>45060</v>
       </c>
@@ -2750,7 +2774,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>45061</v>
       </c>
@@ -2767,7 +2791,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>45062</v>
       </c>
@@ -2784,7 +2808,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>45063</v>
       </c>
@@ -2801,7 +2825,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>45064</v>
       </c>
@@ -2818,7 +2842,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>45065</v>
       </c>
@@ -2835,7 +2859,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>45066</v>
       </c>
@@ -2852,7 +2876,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>45067</v>
       </c>
@@ -2869,7 +2893,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>45068</v>
       </c>
@@ -2886,7 +2910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>45069</v>
       </c>
@@ -2903,7 +2927,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>45070</v>
       </c>
@@ -2920,7 +2944,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>45071</v>
       </c>
@@ -2937,7 +2961,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>45072</v>
       </c>
@@ -2954,7 +2978,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>45073</v>
       </c>
@@ -2971,7 +2995,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <v>45074</v>
       </c>
@@ -2988,7 +3012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <v>45075</v>
       </c>
@@ -3005,7 +3029,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>45076</v>
       </c>
@@ -3022,7 +3046,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <v>45077</v>
       </c>
@@ -3039,7 +3063,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>0</v>
       </c>
@@ -3064,21 +3088,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
@@ -3088,12 +3112,12 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24">
         <v>45078</v>
       </c>
@@ -3110,7 +3134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="24">
         <v>45079</v>
       </c>
@@ -3127,7 +3151,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="24">
         <v>45080</v>
       </c>
@@ -3144,7 +3168,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <v>45081</v>
       </c>
@@ -3161,7 +3185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="24">
         <v>45082</v>
       </c>
@@ -3178,7 +3202,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="24">
         <v>45083</v>
       </c>
@@ -3195,7 +3219,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="24">
         <v>45084</v>
       </c>
@@ -3212,7 +3236,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="24">
         <v>45085</v>
       </c>
@@ -3229,7 +3253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
         <v>45086</v>
       </c>
@@ -3246,7 +3270,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>45087</v>
       </c>
@@ -3263,7 +3287,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>45088</v>
       </c>
@@ -3280,7 +3304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>45089</v>
       </c>
@@ -3297,7 +3321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>45090</v>
       </c>
@@ -3314,7 +3338,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>45091</v>
       </c>
@@ -3331,7 +3355,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>45092</v>
       </c>
@@ -3348,7 +3372,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>45093</v>
       </c>
@@ -3365,7 +3389,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>45094</v>
       </c>
@@ -3382,7 +3406,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>45095</v>
       </c>
@@ -3399,7 +3423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="26">
         <v>45096</v>
       </c>
@@ -3416,7 +3440,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
         <v>45097</v>
       </c>
@@ -3433,7 +3457,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="26">
         <v>45098</v>
       </c>
@@ -3450,7 +3474,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="26">
         <v>45099</v>
       </c>
@@ -3467,7 +3491,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="26">
         <v>45100</v>
       </c>
@@ -3484,7 +3508,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="26">
         <v>45101</v>
       </c>
@@ -3501,7 +3525,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>45102</v>
       </c>
@@ -3518,7 +3542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="26">
         <v>45103</v>
       </c>
@@ -3535,7 +3559,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="26">
         <v>45104</v>
       </c>
@@ -3552,7 +3576,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="26">
         <v>45105</v>
       </c>
@@ -3569,7 +3593,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="26">
         <v>45106</v>
       </c>
@@ -3586,7 +3610,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="26">
         <v>45107</v>
       </c>
@@ -3603,7 +3627,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
         <v>0</v>
       </c>
@@ -3628,37 +3652,318 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="26">
+        <v>45108</v>
+      </c>
+      <c r="B2" s="19">
+        <v>2</v>
+      </c>
+      <c r="C2" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="23">
+        <v>45109</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="26">
+        <v>45110</v>
+      </c>
+      <c r="B4" s="19">
+        <v>2</v>
+      </c>
+      <c r="C4" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="26">
+        <v>45111</v>
+      </c>
+      <c r="B5" s="19">
+        <v>2</v>
+      </c>
+      <c r="C5" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="26">
+        <v>45112</v>
+      </c>
+      <c r="B6" s="38">
+        <v>1</v>
+      </c>
+      <c r="C6" s="39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="35">
+        <v>45113</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="35">
+        <v>45114</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="35">
+        <v>45115</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="35">
+        <v>45116</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="35">
+        <v>45117</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="35">
+        <v>45118</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="35">
+        <v>45119</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="35">
+        <v>45120</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="35">
+        <v>45121</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="35">
+        <v>45122</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="35">
+        <v>45123</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="35">
+        <v>45124</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="35">
+        <v>45125</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="35">
+        <v>45126</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="35">
+        <v>45127</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="35">
+        <v>45128</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="35">
+        <v>45129</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="35">
+        <v>45130</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="35">
+        <v>45131</v>
+      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="35">
+        <v>45132</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="35">
+        <v>45133</v>
+      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="35">
+        <v>45134</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="35">
+        <v>45135</v>
+      </c>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="35">
+        <v>45136</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="35">
+        <v>45137</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="35">
+        <v>45138</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="6">
+        <f>SUM(B2:B32)</f>
+        <v>7</v>
+      </c>
+      <c r="C33" s="27">
+        <f>SUM(C2:C32)</f>
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B33)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33)</f>
         <v>235</v>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B99E0BD-AC2B-41CA-B53B-8561B44A7C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -16,12 +17,12 @@
     <sheet name="Julho" sheetId="9" r:id="rId7"/>
     <sheet name="RELATORIO" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="11">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -180,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -250,7 +251,19 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -274,21 +287,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -307,9 +305,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -347,9 +345,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,7 +382,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,7 +417,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -592,21 +590,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -617,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44927</v>
       </c>
@@ -628,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>44928</v>
       </c>
@@ -639,7 +637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>44929</v>
       </c>
@@ -650,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44930</v>
       </c>
@@ -661,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>44931</v>
       </c>
@@ -672,7 +670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>44932</v>
       </c>
@@ -683,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44933</v>
       </c>
@@ -694,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>44934</v>
       </c>
@@ -705,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44935</v>
       </c>
@@ -716,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44936</v>
       </c>
@@ -727,7 +725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44937</v>
       </c>
@@ -738,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>44938</v>
       </c>
@@ -749,7 +747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>44939</v>
       </c>
@@ -760,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44940</v>
       </c>
@@ -771,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>44941</v>
       </c>
@@ -782,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>44942</v>
       </c>
@@ -793,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>44943</v>
       </c>
@@ -804,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>44944</v>
       </c>
@@ -815,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>44945</v>
       </c>
@@ -826,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>44946</v>
       </c>
@@ -837,7 +835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>44947</v>
       </c>
@@ -848,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>44948</v>
       </c>
@@ -859,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>44949</v>
       </c>
@@ -870,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>44950</v>
       </c>
@@ -881,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>44951</v>
       </c>
@@ -892,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>44952</v>
       </c>
@@ -903,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>44953</v>
       </c>
@@ -914,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>44954</v>
       </c>
@@ -925,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>44955</v>
       </c>
@@ -936,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>44956</v>
       </c>
@@ -947,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>44957</v>
       </c>
@@ -958,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -971,19 +969,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
     </row>
   </sheetData>
@@ -992,21 +990,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1017,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44958</v>
       </c>
@@ -1028,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>44959</v>
       </c>
@@ -1039,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>44960</v>
       </c>
@@ -1050,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44961</v>
       </c>
@@ -1061,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>44962</v>
       </c>
@@ -1072,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>44963</v>
       </c>
@@ -1083,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44964</v>
       </c>
@@ -1094,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>44965</v>
       </c>
@@ -1105,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44966</v>
       </c>
@@ -1116,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44967</v>
       </c>
@@ -1127,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44968</v>
       </c>
@@ -1138,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>44969</v>
       </c>
@@ -1149,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>44970</v>
       </c>
@@ -1160,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44971</v>
       </c>
@@ -1171,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>44972</v>
       </c>
@@ -1182,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>44973</v>
       </c>
@@ -1193,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>44974</v>
       </c>
@@ -1204,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>44975</v>
       </c>
@@ -1215,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>44976</v>
       </c>
@@ -1226,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>44977</v>
       </c>
@@ -1237,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>44978</v>
       </c>
@@ -1248,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>44979</v>
       </c>
@@ -1259,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>44980</v>
       </c>
@@ -1270,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>44981</v>
       </c>
@@ -1281,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>44982</v>
       </c>
@@ -1292,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>44983</v>
       </c>
@@ -1303,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>44984</v>
       </c>
@@ -1314,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>44985</v>
       </c>
@@ -1325,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -1338,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1350,22 +1348,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1375,12 +1373,12 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44986</v>
       </c>
@@ -1397,7 +1395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>44987</v>
       </c>
@@ -1414,7 +1412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>44988</v>
       </c>
@@ -1431,7 +1429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44989</v>
       </c>
@@ -1448,7 +1446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>44990</v>
       </c>
@@ -1465,7 +1463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>44991</v>
       </c>
@@ -1482,7 +1480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44992</v>
       </c>
@@ -1499,7 +1497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>44993</v>
       </c>
@@ -1516,7 +1514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44994</v>
       </c>
@@ -1533,7 +1531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44995</v>
       </c>
@@ -1550,7 +1548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44996</v>
       </c>
@@ -1567,7 +1565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>44997</v>
       </c>
@@ -1584,7 +1582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>44998</v>
       </c>
@@ -1601,7 +1599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44999</v>
       </c>
@@ -1618,7 +1616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>45000</v>
       </c>
@@ -1635,7 +1633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>45001</v>
       </c>
@@ -1652,7 +1650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>45002</v>
       </c>
@@ -1669,7 +1667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>45003</v>
       </c>
@@ -1686,7 +1684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>45004</v>
       </c>
@@ -1703,7 +1701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>45005</v>
       </c>
@@ -1720,7 +1718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>45006</v>
       </c>
@@ -1737,7 +1735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>45007</v>
       </c>
@@ -1754,7 +1752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>45008</v>
       </c>
@@ -1771,7 +1769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>45009</v>
       </c>
@@ -1788,7 +1786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>45010</v>
       </c>
@@ -1805,7 +1803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>45011</v>
       </c>
@@ -1822,7 +1820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>45012</v>
       </c>
@@ -1839,7 +1837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>45013</v>
       </c>
@@ -1856,7 +1854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>45014</v>
       </c>
@@ -1873,7 +1871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>45015</v>
       </c>
@@ -1890,7 +1888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>45016</v>
       </c>
@@ -1907,7 +1905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -1931,22 +1929,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E31" sqref="B31:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1956,12 +1954,12 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>45017</v>
       </c>
@@ -1978,7 +1976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>45018</v>
       </c>
@@ -1995,7 +1993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>45019</v>
       </c>
@@ -2012,7 +2010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>45020</v>
       </c>
@@ -2029,7 +2027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>45021</v>
       </c>
@@ -2046,7 +2044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>45022</v>
       </c>
@@ -2063,7 +2061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>45023</v>
       </c>
@@ -2080,7 +2078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>45024</v>
       </c>
@@ -2097,7 +2095,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>45025</v>
       </c>
@@ -2114,7 +2112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>45026</v>
       </c>
@@ -2131,7 +2129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>45027</v>
       </c>
@@ -2148,7 +2146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>45028</v>
       </c>
@@ -2165,7 +2163,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>45029</v>
       </c>
@@ -2182,7 +2180,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>45030</v>
       </c>
@@ -2199,7 +2197,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>45031</v>
       </c>
@@ -2216,7 +2214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>45032</v>
       </c>
@@ -2233,17 +2231,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
       <c r="F18" s="17"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>45033</v>
       </c>
@@ -2260,7 +2258,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>45034</v>
       </c>
@@ -2277,7 +2275,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>45035</v>
       </c>
@@ -2287,13 +2285,13 @@
       <c r="C21" s="20">
         <v>21</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="33"/>
+      <c r="E21" s="37"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>45036</v>
       </c>
@@ -2310,7 +2308,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>45037</v>
       </c>
@@ -2327,7 +2325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>45038</v>
       </c>
@@ -2344,7 +2342,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>45039</v>
       </c>
@@ -2361,7 +2359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>45040</v>
       </c>
@@ -2378,7 +2376,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>45041</v>
       </c>
@@ -2395,7 +2393,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>45042</v>
       </c>
@@ -2412,7 +2410,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>45043</v>
       </c>
@@ -2429,7 +2427,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>45044</v>
       </c>
@@ -2446,7 +2444,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>45045</v>
       </c>
@@ -2463,7 +2461,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>45046</v>
       </c>
@@ -2480,7 +2478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -2507,21 +2505,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
@@ -2531,12 +2529,12 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>45047</v>
       </c>
@@ -2553,7 +2551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>45048</v>
       </c>
@@ -2570,7 +2568,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>45049</v>
       </c>
@@ -2587,7 +2585,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>45050</v>
       </c>
@@ -2604,7 +2602,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>45051</v>
       </c>
@@ -2621,7 +2619,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>45052</v>
       </c>
@@ -2638,7 +2636,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>45053</v>
       </c>
@@ -2655,7 +2653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>45054</v>
       </c>
@@ -2672,7 +2670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>45055</v>
       </c>
@@ -2689,7 +2687,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>45056</v>
       </c>
@@ -2706,7 +2704,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>45057</v>
       </c>
@@ -2723,7 +2721,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>45058</v>
       </c>
@@ -2740,7 +2738,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>45059</v>
       </c>
@@ -2757,7 +2755,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>45060</v>
       </c>
@@ -2774,7 +2772,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>45061</v>
       </c>
@@ -2791,7 +2789,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>45062</v>
       </c>
@@ -2808,7 +2806,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>45063</v>
       </c>
@@ -2825,7 +2823,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>45064</v>
       </c>
@@ -2842,7 +2840,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>45065</v>
       </c>
@@ -2859,7 +2857,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>45066</v>
       </c>
@@ -2876,7 +2874,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>45067</v>
       </c>
@@ -2893,7 +2891,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>45068</v>
       </c>
@@ -2910,7 +2908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>45069</v>
       </c>
@@ -2927,7 +2925,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>45070</v>
       </c>
@@ -2944,7 +2942,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>45071</v>
       </c>
@@ -2961,7 +2959,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>45072</v>
       </c>
@@ -2978,7 +2976,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>45073</v>
       </c>
@@ -2995,7 +2993,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>45074</v>
       </c>
@@ -3012,7 +3010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>45075</v>
       </c>
@@ -3029,7 +3027,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>45076</v>
       </c>
@@ -3046,7 +3044,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>45077</v>
       </c>
@@ -3063,7 +3061,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>0</v>
       </c>
@@ -3088,21 +3086,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
@@ -3112,12 +3110,12 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>45078</v>
       </c>
@@ -3134,7 +3132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>45079</v>
       </c>
@@ -3151,7 +3149,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>45080</v>
       </c>
@@ -3168,7 +3166,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>45081</v>
       </c>
@@ -3185,7 +3183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>45082</v>
       </c>
@@ -3202,7 +3200,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>45083</v>
       </c>
@@ -3219,7 +3217,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>45084</v>
       </c>
@@ -3236,7 +3234,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>45085</v>
       </c>
@@ -3253,7 +3251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>45086</v>
       </c>
@@ -3270,7 +3268,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>45087</v>
       </c>
@@ -3287,7 +3285,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>45088</v>
       </c>
@@ -3304,7 +3302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>45089</v>
       </c>
@@ -3321,7 +3319,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>45090</v>
       </c>
@@ -3338,7 +3336,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>45091</v>
       </c>
@@ -3355,7 +3353,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>45092</v>
       </c>
@@ -3372,7 +3370,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>45093</v>
       </c>
@@ -3389,7 +3387,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>45094</v>
       </c>
@@ -3406,7 +3404,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>45095</v>
       </c>
@@ -3423,7 +3421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>45096</v>
       </c>
@@ -3440,7 +3438,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>45097</v>
       </c>
@@ -3457,7 +3455,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>45098</v>
       </c>
@@ -3474,7 +3472,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>45099</v>
       </c>
@@ -3491,7 +3489,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>45100</v>
       </c>
@@ -3508,7 +3506,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>45101</v>
       </c>
@@ -3525,7 +3523,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>45102</v>
       </c>
@@ -3542,7 +3540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>45103</v>
       </c>
@@ -3559,7 +3557,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>45104</v>
       </c>
@@ -3576,7 +3574,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>45105</v>
       </c>
@@ -3593,7 +3591,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>45106</v>
       </c>
@@ -3610,7 +3608,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <v>45107</v>
       </c>
@@ -3627,7 +3625,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>0</v>
       </c>
@@ -3652,43 +3650,43 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>45108</v>
       </c>
-      <c r="B2" s="19">
-        <v>2</v>
-      </c>
-      <c r="C2" s="20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="30">
+        <v>2</v>
+      </c>
+      <c r="C2" s="31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>45109</v>
       </c>
@@ -3699,232 +3697,248 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>45110</v>
       </c>
-      <c r="B4" s="19">
-        <v>2</v>
-      </c>
-      <c r="C4" s="20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="30">
+        <v>2</v>
+      </c>
+      <c r="C4" s="31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>45111</v>
       </c>
-      <c r="B5" s="19">
-        <v>2</v>
-      </c>
-      <c r="C5" s="20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="30">
+        <v>2</v>
+      </c>
+      <c r="C5" s="31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>45112</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="30">
         <v>1</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="31">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
         <v>45113</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="35">
+      <c r="B7" s="30">
+        <v>2</v>
+      </c>
+      <c r="C7" s="31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
         <v>45114</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="35">
+      <c r="B8" s="30">
+        <v>1</v>
+      </c>
+      <c r="C8" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
         <v>45115</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="35">
+      <c r="B9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
         <v>45116</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="35">
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
         <v>45117</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="35">
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
         <v>45118</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="35">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
         <v>45119</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="35">
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
         <v>45120</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="35">
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
         <v>45121</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="35">
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
         <v>45122</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="35">
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="27">
         <v>45123</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="35">
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
         <v>45124</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="35">
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
         <v>45125</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="35">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
         <v>45126</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="35">
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
         <v>45127</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="35">
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
         <v>45128</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="35">
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="27">
         <v>45129</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="35">
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
         <v>45130</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="35">
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="27">
         <v>45131</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="35">
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="27">
         <v>45132</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="35">
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="27">
         <v>45133</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="35">
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="27">
         <v>45134</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="35">
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="27">
         <v>45135</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="35">
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="27">
         <v>45136</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="35">
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="27">
         <v>45137</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="35">
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="27">
         <v>45138</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="37"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B32)</f>
-        <v>7</v>
-      </c>
-      <c r="C33" s="27">
+        <v>10</v>
+      </c>
+      <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3933,37 +3947,37 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B33)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33)</f>
         <v>235</v>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B99E0BD-AC2B-41CA-B53B-8561B44A7C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4394FA00-6237-4F0B-93AC-440081B58EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3654,7 +3654,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="B2:C2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3775,11 +3775,15 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
+      <c r="A11" s="26">
         <v>45117</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
+      <c r="B11" s="30">
+        <v>1</v>
+      </c>
+      <c r="C11" s="31">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
@@ -3934,11 +3938,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B32)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4394FA00-6237-4F0B-93AC-440081B58EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB0B049-337E-4D9D-A05E-05DDA8D360C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3654,7 +3654,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3786,18 +3786,26 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
+      <c r="A12" s="26">
         <v>45118</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+      <c r="B12" s="30">
+        <v>2</v>
+      </c>
+      <c r="C12" s="31">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
+      <c r="A13" s="26">
         <v>45119</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
+      <c r="B13" s="30">
+        <v>1</v>
+      </c>
+      <c r="C13" s="31">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
@@ -3938,11 +3946,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B32)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB0B049-337E-4D9D-A05E-05DDA8D360C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B15B4B-9210-4F63-8304-3DA0F61A5C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3654,7 +3654,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3808,18 +3808,26 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
+      <c r="A14" s="26">
         <v>45120</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
+      <c r="B14" s="30">
+        <v>2</v>
+      </c>
+      <c r="C14" s="31">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
+      <c r="A15" s="26">
         <v>45121</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
+      <c r="B15" s="30">
+        <v>1</v>
+      </c>
+      <c r="C15" s="31">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
@@ -3946,11 +3954,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B32)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B15B4B-9210-4F63-8304-3DA0F61A5C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB02C85D-2AF0-4FFC-8C4A-B4731AFF3033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="11">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -3654,7 +3654,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3833,8 +3833,12 @@
       <c r="A16" s="27">
         <v>45122</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
+      <c r="B16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="27">

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB02C85D-2AF0-4FFC-8C4A-B4731AFF3033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1E5337-6E71-434D-B4D0-B3B8EE472421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="11">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -3654,7 +3654,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:C16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3830,7 +3830,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
+      <c r="A16" s="23">
         <v>45122</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -3841,11 +3841,15 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="27">
+      <c r="A17" s="23">
         <v>45123</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="27">

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1E5337-6E71-434D-B4D0-B3B8EE472421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD257524-269B-4AF2-9C01-4530E64F0EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3654,7 +3654,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3852,11 +3852,15 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
+      <c r="A18" s="26">
         <v>45124</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
+      <c r="B18" s="30">
+        <v>2</v>
+      </c>
+      <c r="C18" s="31">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
@@ -3962,11 +3966,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B32)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD257524-269B-4AF2-9C01-4530E64F0EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F951EAC-5CDE-44D1-B3D4-8B2285CCEAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3653,8 +3653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3863,18 +3863,26 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
+      <c r="A19" s="26">
         <v>45125</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
+      <c r="B19" s="30">
+        <v>2</v>
+      </c>
+      <c r="C19" s="31">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
+      <c r="A20" s="26">
         <v>45126</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
+      <c r="B20" s="30">
+        <v>2</v>
+      </c>
+      <c r="C20" s="31">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
@@ -3966,11 +3974,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B32)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>133</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F951EAC-5CDE-44D1-B3D4-8B2285CCEAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A63DBEB-BDD5-4F5D-8319-C51C86C66129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -249,9 +249,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1373,10 +1370,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1954,10 +1951,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2232,13 +2229,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2285,10 +2282,10 @@
       <c r="C21" s="20">
         <v>21</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="37"/>
+      <c r="E21" s="36"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2529,10 +2526,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
@@ -3110,10 +3107,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
@@ -3654,7 +3651,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A20" sqref="A20:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3679,10 +3676,10 @@
       <c r="A2" s="26">
         <v>45108</v>
       </c>
-      <c r="B2" s="30">
-        <v>2</v>
-      </c>
-      <c r="C2" s="31">
+      <c r="B2" s="29">
+        <v>2</v>
+      </c>
+      <c r="C2" s="30">
         <v>14</v>
       </c>
     </row>
@@ -3701,10 +3698,10 @@
       <c r="A4" s="26">
         <v>45110</v>
       </c>
-      <c r="B4" s="30">
-        <v>2</v>
-      </c>
-      <c r="C4" s="31">
+      <c r="B4" s="29">
+        <v>2</v>
+      </c>
+      <c r="C4" s="30">
         <v>14</v>
       </c>
     </row>
@@ -3712,10 +3709,10 @@
       <c r="A5" s="26">
         <v>45111</v>
       </c>
-      <c r="B5" s="30">
-        <v>2</v>
-      </c>
-      <c r="C5" s="31">
+      <c r="B5" s="29">
+        <v>2</v>
+      </c>
+      <c r="C5" s="30">
         <v>14</v>
       </c>
     </row>
@@ -3723,10 +3720,10 @@
       <c r="A6" s="26">
         <v>45112</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="29">
         <v>1</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="30">
         <v>7</v>
       </c>
     </row>
@@ -3734,10 +3731,10 @@
       <c r="A7" s="26">
         <v>45113</v>
       </c>
-      <c r="B7" s="30">
-        <v>2</v>
-      </c>
-      <c r="C7" s="31">
+      <c r="B7" s="29">
+        <v>2</v>
+      </c>
+      <c r="C7" s="30">
         <v>14</v>
       </c>
     </row>
@@ -3745,10 +3742,10 @@
       <c r="A8" s="26">
         <v>45114</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="29">
         <v>1</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="30">
         <v>7</v>
       </c>
     </row>
@@ -3778,10 +3775,10 @@
       <c r="A11" s="26">
         <v>45117</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="29">
         <v>1</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="30">
         <v>7</v>
       </c>
     </row>
@@ -3789,10 +3786,10 @@
       <c r="A12" s="26">
         <v>45118</v>
       </c>
-      <c r="B12" s="30">
-        <v>2</v>
-      </c>
-      <c r="C12" s="31">
+      <c r="B12" s="29">
+        <v>2</v>
+      </c>
+      <c r="C12" s="30">
         <v>14</v>
       </c>
     </row>
@@ -3800,10 +3797,10 @@
       <c r="A13" s="26">
         <v>45119</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="29">
         <v>1</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="30">
         <v>7</v>
       </c>
     </row>
@@ -3811,10 +3808,10 @@
       <c r="A14" s="26">
         <v>45120</v>
       </c>
-      <c r="B14" s="30">
-        <v>2</v>
-      </c>
-      <c r="C14" s="31">
+      <c r="B14" s="29">
+        <v>2</v>
+      </c>
+      <c r="C14" s="30">
         <v>14</v>
       </c>
     </row>
@@ -3822,10 +3819,10 @@
       <c r="A15" s="26">
         <v>45121</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="29">
         <v>1</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="30">
         <v>7</v>
       </c>
     </row>
@@ -3855,10 +3852,10 @@
       <c r="A18" s="26">
         <v>45124</v>
       </c>
-      <c r="B18" s="30">
-        <v>2</v>
-      </c>
-      <c r="C18" s="31">
+      <c r="B18" s="29">
+        <v>2</v>
+      </c>
+      <c r="C18" s="30">
         <v>14</v>
       </c>
     </row>
@@ -3866,10 +3863,10 @@
       <c r="A19" s="26">
         <v>45125</v>
       </c>
-      <c r="B19" s="30">
-        <v>2</v>
-      </c>
-      <c r="C19" s="31">
+      <c r="B19" s="29">
+        <v>2</v>
+      </c>
+      <c r="C19" s="30">
         <v>14</v>
       </c>
     </row>
@@ -3877,96 +3874,100 @@
       <c r="A20" s="26">
         <v>45126</v>
       </c>
-      <c r="B20" s="30">
-        <v>2</v>
-      </c>
-      <c r="C20" s="31">
+      <c r="B20" s="29">
+        <v>2</v>
+      </c>
+      <c r="C20" s="30">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
+      <c r="A21" s="26">
         <v>45127</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
+      <c r="B21" s="29">
+        <v>1</v>
+      </c>
+      <c r="C21" s="30">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
+      <c r="A22" s="26">
         <v>45128</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
+      <c r="A23" s="26">
         <v>45129</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
+      <c r="A24" s="26">
         <v>45130</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
+      <c r="A25" s="26">
         <v>45131</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
+      <c r="A26" s="26">
         <v>45132</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
+      <c r="A27" s="26">
         <v>45133</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="27">
+      <c r="A28" s="26">
         <v>45134</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="27">
+      <c r="A29" s="26">
         <v>45135</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="27">
+      <c r="A30" s="26">
         <v>45136</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="27">
+      <c r="A31" s="26">
         <v>45137</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="27">
+      <c r="A32" s="26">
         <v>45138</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
@@ -3974,11 +3975,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B32)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3997,27 +3998,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B33)</f>
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33)</f>
         <v>235</v>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A63DBEB-BDD5-4F5D-8319-C51C86C66129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5740FA77-8E18-41CF-9E88-0F55FD77A0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3651,7 +3651,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A32"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3896,8 +3896,12 @@
       <c r="A22" s="26">
         <v>45128</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
+      <c r="B22" s="29">
+        <v>2</v>
+      </c>
+      <c r="C22" s="30">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
@@ -3975,11 +3979,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B32)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5740FA77-8E18-41CF-9E88-0F55FD77A0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E29F8E2-A0AC-48AA-B5EA-8714701C99AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="11">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -3651,7 +3651,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3907,22 +3907,34 @@
       <c r="A23" s="26">
         <v>45129</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
+      <c r="B23" s="29">
+        <v>2</v>
+      </c>
+      <c r="C23" s="30">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>45130</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
+      <c r="B24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>45131</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
+      <c r="B25" s="29">
+        <v>2</v>
+      </c>
+      <c r="C25" s="30">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -3979,11 +3991,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B32)</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>182</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E29F8E2-A0AC-48AA-B5EA-8714701C99AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D63151-C7C0-4894-A175-625764CB93BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3651,7 +3651,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3940,8 +3940,12 @@
       <c r="A26" s="26">
         <v>45132</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="29">
+        <v>2</v>
+      </c>
+      <c r="C26" s="30">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
@@ -3991,11 +3995,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B32)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D63151-C7C0-4894-A175-625764CB93BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF6F701-B88B-4850-9A44-C67FAC0BD01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="11">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -3650,8 +3650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3951,22 +3951,34 @@
       <c r="A27" s="26">
         <v>45133</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
+      <c r="B27" s="29">
+        <v>2</v>
+      </c>
+      <c r="C27" s="30">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>45134</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
+      <c r="B28" s="29">
+        <v>1</v>
+      </c>
+      <c r="C28" s="30">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <v>45135</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
+      <c r="B29" s="29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="30">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
@@ -3979,8 +3991,12 @@
       <c r="A31" s="26">
         <v>45137</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
@@ -3995,11 +4011,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B32)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>224</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF6F701-B88B-4850-9A44-C67FAC0BD01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D914903F-95B0-4009-948D-E7E3AC139EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,12 +107,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -249,12 +243,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1370,10 +1358,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="31"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1951,10 +1939,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="31"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2229,13 +2217,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2282,10 +2270,10 @@
       <c r="C21" s="20">
         <v>21</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="36"/>
+      <c r="E21" s="34"/>
       <c r="F21"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2526,10 +2514,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="31"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
@@ -3107,10 +3095,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="31"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
@@ -3651,7 +3639,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:C31"/>
+      <selection activeCell="B32" sqref="B32:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3676,10 +3664,10 @@
       <c r="A2" s="26">
         <v>45108</v>
       </c>
-      <c r="B2" s="29">
-        <v>2</v>
-      </c>
-      <c r="C2" s="30">
+      <c r="B2" s="27">
+        <v>2</v>
+      </c>
+      <c r="C2" s="28">
         <v>14</v>
       </c>
     </row>
@@ -3698,10 +3686,10 @@
       <c r="A4" s="26">
         <v>45110</v>
       </c>
-      <c r="B4" s="29">
-        <v>2</v>
-      </c>
-      <c r="C4" s="30">
+      <c r="B4" s="27">
+        <v>2</v>
+      </c>
+      <c r="C4" s="28">
         <v>14</v>
       </c>
     </row>
@@ -3709,10 +3697,10 @@
       <c r="A5" s="26">
         <v>45111</v>
       </c>
-      <c r="B5" s="29">
-        <v>2</v>
-      </c>
-      <c r="C5" s="30">
+      <c r="B5" s="27">
+        <v>2</v>
+      </c>
+      <c r="C5" s="28">
         <v>14</v>
       </c>
     </row>
@@ -3720,10 +3708,10 @@
       <c r="A6" s="26">
         <v>45112</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="27">
         <v>1</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="28">
         <v>7</v>
       </c>
     </row>
@@ -3731,10 +3719,10 @@
       <c r="A7" s="26">
         <v>45113</v>
       </c>
-      <c r="B7" s="29">
-        <v>2</v>
-      </c>
-      <c r="C7" s="30">
+      <c r="B7" s="27">
+        <v>2</v>
+      </c>
+      <c r="C7" s="28">
         <v>14</v>
       </c>
     </row>
@@ -3742,10 +3730,10 @@
       <c r="A8" s="26">
         <v>45114</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="27">
         <v>1</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="28">
         <v>7</v>
       </c>
     </row>
@@ -3775,10 +3763,10 @@
       <c r="A11" s="26">
         <v>45117</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="27">
         <v>1</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="28">
         <v>7</v>
       </c>
     </row>
@@ -3786,10 +3774,10 @@
       <c r="A12" s="26">
         <v>45118</v>
       </c>
-      <c r="B12" s="29">
-        <v>2</v>
-      </c>
-      <c r="C12" s="30">
+      <c r="B12" s="27">
+        <v>2</v>
+      </c>
+      <c r="C12" s="28">
         <v>14</v>
       </c>
     </row>
@@ -3797,10 +3785,10 @@
       <c r="A13" s="26">
         <v>45119</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="27">
         <v>1</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="28">
         <v>7</v>
       </c>
     </row>
@@ -3808,10 +3796,10 @@
       <c r="A14" s="26">
         <v>45120</v>
       </c>
-      <c r="B14" s="29">
-        <v>2</v>
-      </c>
-      <c r="C14" s="30">
+      <c r="B14" s="27">
+        <v>2</v>
+      </c>
+      <c r="C14" s="28">
         <v>14</v>
       </c>
     </row>
@@ -3819,10 +3807,10 @@
       <c r="A15" s="26">
         <v>45121</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="27">
         <v>1</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="28">
         <v>7</v>
       </c>
     </row>
@@ -3852,10 +3840,10 @@
       <c r="A18" s="26">
         <v>45124</v>
       </c>
-      <c r="B18" s="29">
-        <v>2</v>
-      </c>
-      <c r="C18" s="30">
+      <c r="B18" s="27">
+        <v>2</v>
+      </c>
+      <c r="C18" s="28">
         <v>14</v>
       </c>
     </row>
@@ -3863,10 +3851,10 @@
       <c r="A19" s="26">
         <v>45125</v>
       </c>
-      <c r="B19" s="29">
-        <v>2</v>
-      </c>
-      <c r="C19" s="30">
+      <c r="B19" s="27">
+        <v>2</v>
+      </c>
+      <c r="C19" s="28">
         <v>14</v>
       </c>
     </row>
@@ -3874,10 +3862,10 @@
       <c r="A20" s="26">
         <v>45126</v>
       </c>
-      <c r="B20" s="29">
-        <v>2</v>
-      </c>
-      <c r="C20" s="30">
+      <c r="B20" s="27">
+        <v>2</v>
+      </c>
+      <c r="C20" s="28">
         <v>14</v>
       </c>
     </row>
@@ -3885,10 +3873,10 @@
       <c r="A21" s="26">
         <v>45127</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="27">
         <v>1</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="28">
         <v>7</v>
       </c>
     </row>
@@ -3896,10 +3884,10 @@
       <c r="A22" s="26">
         <v>45128</v>
       </c>
-      <c r="B22" s="29">
-        <v>2</v>
-      </c>
-      <c r="C22" s="30">
+      <c r="B22" s="27">
+        <v>2</v>
+      </c>
+      <c r="C22" s="28">
         <v>14</v>
       </c>
     </row>
@@ -3907,10 +3895,10 @@
       <c r="A23" s="26">
         <v>45129</v>
       </c>
-      <c r="B23" s="29">
-        <v>2</v>
-      </c>
-      <c r="C23" s="30">
+      <c r="B23" s="27">
+        <v>2</v>
+      </c>
+      <c r="C23" s="28">
         <v>14</v>
       </c>
     </row>
@@ -3929,10 +3917,10 @@
       <c r="A25" s="26">
         <v>45131</v>
       </c>
-      <c r="B25" s="29">
-        <v>2</v>
-      </c>
-      <c r="C25" s="30">
+      <c r="B25" s="27">
+        <v>2</v>
+      </c>
+      <c r="C25" s="28">
         <v>14</v>
       </c>
     </row>
@@ -3940,10 +3928,10 @@
       <c r="A26" s="26">
         <v>45132</v>
       </c>
-      <c r="B26" s="29">
-        <v>2</v>
-      </c>
-      <c r="C26" s="30">
+      <c r="B26" s="27">
+        <v>2</v>
+      </c>
+      <c r="C26" s="28">
         <v>14</v>
       </c>
     </row>
@@ -3951,10 +3939,10 @@
       <c r="A27" s="26">
         <v>45133</v>
       </c>
-      <c r="B27" s="29">
-        <v>2</v>
-      </c>
-      <c r="C27" s="30">
+      <c r="B27" s="27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="28">
         <v>14</v>
       </c>
     </row>
@@ -3962,10 +3950,10 @@
       <c r="A28" s="26">
         <v>45134</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="27">
         <v>1</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="28">
         <v>7</v>
       </c>
     </row>
@@ -3973,10 +3961,10 @@
       <c r="A29" s="26">
         <v>45135</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="27">
         <v>1</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="28">
         <v>7</v>
       </c>
     </row>
@@ -3984,8 +3972,12 @@
       <c r="A30" s="26">
         <v>45136</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
+      <c r="B30" s="27">
+        <v>2</v>
+      </c>
+      <c r="C30" s="28">
+        <v>14</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
@@ -4002,8 +3994,12 @@
       <c r="A32" s="26">
         <v>45138</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
+      <c r="B32" s="27">
+        <v>2</v>
+      </c>
+      <c r="C32" s="28">
+        <v>14</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
@@ -4011,11 +4007,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B32)</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>252</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -4034,27 +4030,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B33)</f>
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C33)</f>
         <v>235</v>

--- a/CTR MILENA.xlsx
+++ b/CTR MILENA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D914903F-95B0-4009-948D-E7E3AC139EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A4E4F1-2B39-4304-8238-4F4A9D1C1CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3638,8 +3638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:C32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3995,10 +3995,10 @@
         <v>45138</v>
       </c>
       <c r="B32" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="28">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -4007,11 +4007,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B32)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
